--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/ORF-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/ORF-raw-ss-lookup-tabbed-grade.xlsx
@@ -379,7 +379,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +387,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +403,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -411,7 +411,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -419,7 +419,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -427,7 +427,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -435,7 +435,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -443,7 +443,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +451,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +475,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -483,7 +483,7 @@
         <v>-7</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -491,7 +491,7 @@
         <v>-6</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -499,7 +499,7 @@
         <v>-5</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -507,7 +507,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -515,7 +515,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +523,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -595,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -651,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39">
@@ -675,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -691,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
@@ -755,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50">
@@ -763,7 +763,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51">
@@ -771,7 +771,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52">
@@ -779,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -787,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
@@ -795,7 +795,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
@@ -803,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
@@ -811,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
@@ -819,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
@@ -827,7 +827,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
@@ -835,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
@@ -843,7 +843,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
@@ -851,7 +851,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
@@ -859,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
@@ -867,7 +867,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
@@ -875,7 +875,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
@@ -883,7 +883,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66">
@@ -891,7 +891,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
@@ -907,7 +907,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69">
@@ -915,7 +915,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
@@ -923,7 +923,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71">
@@ -931,7 +931,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
@@ -2676,7 +2676,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -2684,7 +2684,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -2692,7 +2692,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2700,7 +2700,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -2708,7 +2708,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2716,7 +2716,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -2724,7 +2724,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -2732,7 +2732,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -2764,7 +2764,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -2772,7 +2772,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -2780,7 +2780,7 @@
         <v>-7</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -2804,7 +2804,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -2812,7 +2812,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -2820,7 +2820,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -2860,7 +2860,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -2868,7 +2868,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -2884,7 +2884,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -2892,7 +2892,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -2908,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -2924,7 +2924,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -2932,7 +2932,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -2948,7 +2948,7 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -2964,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
@@ -2980,7 +2980,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -2996,7 +2996,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
@@ -3060,7 +3060,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
@@ -3076,7 +3076,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
@@ -3092,7 +3092,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55">
@@ -3116,7 +3116,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
@@ -3132,7 +3132,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
@@ -3148,7 +3148,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
@@ -3156,7 +3156,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63">
@@ -3164,7 +3164,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64">
@@ -3172,7 +3172,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65">
@@ -3188,7 +3188,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67">
@@ -3196,7 +3196,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
@@ -3204,7 +3204,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69">
@@ -3212,7 +3212,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70">
@@ -3220,7 +3220,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
@@ -3228,7 +3228,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
@@ -3236,7 +3236,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
@@ -3244,7 +3244,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
@@ -3252,7 +3252,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
@@ -3260,7 +3260,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76">
@@ -3268,7 +3268,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77">
@@ -3276,7 +3276,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
@@ -3284,7 +3284,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
@@ -3292,7 +3292,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
@@ -3300,7 +3300,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81">
@@ -3308,7 +3308,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82">
@@ -3316,7 +3316,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83">
@@ -3324,7 +3324,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
@@ -3332,7 +3332,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
@@ -3340,7 +3340,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
@@ -3348,7 +3348,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
@@ -3356,7 +3356,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88">
@@ -3364,7 +3364,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89">
@@ -3372,7 +3372,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90">
@@ -3380,7 +3380,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91">
@@ -3388,7 +3388,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92">
@@ -3396,7 +3396,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93">
@@ -3404,7 +3404,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94">
@@ -3412,7 +3412,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95">
@@ -3420,7 +3420,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
@@ -3428,7 +3428,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
@@ -3436,7 +3436,7 @@
         <v>75</v>
       </c>
       <c r="B97">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98">
@@ -3444,7 +3444,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100">
@@ -3460,7 +3460,7 @@
         <v>78</v>
       </c>
       <c r="B100">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
@@ -3468,7 +3468,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
@@ -3476,7 +3476,7 @@
         <v>80</v>
       </c>
       <c r="B102">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
@@ -3484,7 +3484,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
@@ -3492,7 +3492,7 @@
         <v>82</v>
       </c>
       <c r="B104">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105">
@@ -3500,7 +3500,7 @@
         <v>83</v>
       </c>
       <c r="B105">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106">
@@ -3508,7 +3508,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
@@ -3516,7 +3516,7 @@
         <v>85</v>
       </c>
       <c r="B107">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108">
@@ -4973,7 +4973,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -4981,7 +4981,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -5005,7 +5005,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -5013,7 +5013,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -5021,7 +5021,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -5029,7 +5029,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -5037,7 +5037,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -5045,7 +5045,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -5053,7 +5053,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -5061,7 +5061,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -5069,7 +5069,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -5077,7 +5077,7 @@
         <v>-7</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -5085,7 +5085,7 @@
         <v>-6</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -5093,7 +5093,7 @@
         <v>-5</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -5101,7 +5101,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -5109,7 +5109,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -5117,7 +5117,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -5125,7 +5125,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -5149,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -5165,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -5173,7 +5173,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -5181,7 +5181,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -5189,7 +5189,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -5197,7 +5197,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -5205,7 +5205,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -5213,7 +5213,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
@@ -5221,7 +5221,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -5229,7 +5229,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
@@ -5237,7 +5237,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -5245,7 +5245,7 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -5253,7 +5253,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38">
@@ -5261,7 +5261,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -5269,7 +5269,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40">
@@ -5277,7 +5277,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -5285,7 +5285,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42">
@@ -5293,7 +5293,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -5301,7 +5301,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
@@ -5309,7 +5309,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
@@ -5317,7 +5317,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
@@ -5325,7 +5325,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
@@ -5333,7 +5333,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -5341,7 +5341,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
@@ -5349,7 +5349,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
@@ -5357,7 +5357,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
@@ -5365,7 +5365,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
@@ -5373,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
@@ -5381,7 +5381,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54">
@@ -5389,7 +5389,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55">
@@ -5397,7 +5397,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
@@ -5405,7 +5405,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57">
@@ -5421,7 +5421,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
@@ -5429,7 +5429,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60">
@@ -5437,7 +5437,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
@@ -5445,7 +5445,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
@@ -5461,7 +5461,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64">
@@ -5469,7 +5469,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65">
@@ -5485,7 +5485,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67">
@@ -5509,7 +5509,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
@@ -5533,7 +5533,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
@@ -5701,7 +5701,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94">
@@ -5725,7 +5725,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97">
@@ -5781,7 +5781,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104">
@@ -5805,7 +5805,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107">
@@ -5813,7 +5813,7 @@
         <v>85</v>
       </c>
       <c r="B107">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108">
@@ -5837,7 +5837,7 @@
         <v>88</v>
       </c>
       <c r="B110">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
@@ -5861,7 +5861,7 @@
         <v>91</v>
       </c>
       <c r="B113">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114">
@@ -5869,7 +5869,7 @@
         <v>92</v>
       </c>
       <c r="B114">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115">
@@ -5893,7 +5893,7 @@
         <v>95</v>
       </c>
       <c r="B117">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118">
@@ -5901,7 +5901,7 @@
         <v>96</v>
       </c>
       <c r="B118">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119">
@@ -5925,7 +5925,7 @@
         <v>99</v>
       </c>
       <c r="B121">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
@@ -5933,7 +5933,7 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
@@ -5949,7 +5949,7 @@
         <v>102</v>
       </c>
       <c r="B124">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125">
@@ -5957,7 +5957,7 @@
         <v>103</v>
       </c>
       <c r="B125">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126">
@@ -5981,7 +5981,7 @@
         <v>106</v>
       </c>
       <c r="B128">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129">
@@ -5989,7 +5989,7 @@
         <v>107</v>
       </c>
       <c r="B129">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
@@ -6013,7 +6013,7 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133">
@@ -6021,7 +6021,7 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134">
@@ -6045,7 +6045,7 @@
         <v>114</v>
       </c>
       <c r="B136">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137">
@@ -6053,7 +6053,7 @@
         <v>115</v>
       </c>
       <c r="B137">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138">
@@ -7270,7 +7270,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -7278,7 +7278,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -7286,7 +7286,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -7294,7 +7294,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -7302,7 +7302,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -7310,7 +7310,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -7318,7 +7318,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -7326,7 +7326,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -7334,7 +7334,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -7342,7 +7342,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -7350,7 +7350,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -7358,7 +7358,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -7366,7 +7366,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -7374,7 +7374,7 @@
         <v>-7</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -7382,7 +7382,7 @@
         <v>-6</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -7390,7 +7390,7 @@
         <v>-5</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -7398,7 +7398,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -7406,7 +7406,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -7414,7 +7414,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -7422,7 +7422,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -7438,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -7446,7 +7446,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -7454,7 +7454,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>83</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -7462,7 +7462,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -7470,7 +7470,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -7478,7 +7478,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -7486,7 +7486,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>86</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -7494,7 +7494,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -7502,7 +7502,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -7510,7 +7510,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -7518,7 +7518,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34">
@@ -7526,7 +7526,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -7534,7 +7534,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -7542,7 +7542,7 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37">
@@ -7550,7 +7550,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -7558,7 +7558,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39">
@@ -7566,7 +7566,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -7574,7 +7574,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
@@ -7582,7 +7582,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
@@ -7590,7 +7590,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -7598,7 +7598,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -7606,7 +7606,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -7614,7 +7614,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -7622,7 +7622,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
@@ -7630,7 +7630,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -7638,7 +7638,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
@@ -7646,7 +7646,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50">
@@ -7654,7 +7654,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51">
@@ -7662,7 +7662,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52">
@@ -7670,7 +7670,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -7678,7 +7678,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
@@ -7686,7 +7686,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
@@ -7694,7 +7694,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
@@ -7702,7 +7702,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
@@ -7710,7 +7710,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
@@ -7718,7 +7718,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
@@ -7726,7 +7726,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
@@ -7734,7 +7734,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
@@ -7742,7 +7742,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
@@ -7750,7 +7750,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
@@ -7758,7 +7758,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>101</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
@@ -7766,7 +7766,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
@@ -7774,7 +7774,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66">
@@ -7782,7 +7782,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
@@ -7790,7 +7790,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
@@ -7798,7 +7798,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69">
@@ -7806,7 +7806,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
@@ -7814,7 +7814,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71">
@@ -7822,7 +7822,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
@@ -7830,7 +7830,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
@@ -7838,7 +7838,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
@@ -7846,7 +7846,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
@@ -7854,7 +7854,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
@@ -7862,7 +7862,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
@@ -7870,7 +7870,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
@@ -7878,7 +7878,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
@@ -7886,7 +7886,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
@@ -7894,7 +7894,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81">
@@ -7902,7 +7902,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82">
@@ -7910,7 +7910,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
@@ -7918,7 +7918,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
@@ -7926,7 +7926,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
@@ -7934,7 +7934,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
@@ -7942,7 +7942,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87">
@@ -7950,7 +7950,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
@@ -7958,7 +7958,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
@@ -7966,7 +7966,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
@@ -7974,7 +7974,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
@@ -7982,7 +7982,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
@@ -7990,7 +7990,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
@@ -7998,7 +7998,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
@@ -8006,7 +8006,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
@@ -8014,7 +8014,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
@@ -8022,7 +8022,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
@@ -8030,7 +8030,7 @@
         <v>75</v>
       </c>
       <c r="B97">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
@@ -8038,7 +8038,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
@@ -8046,7 +8046,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
@@ -8054,7 +8054,7 @@
         <v>78</v>
       </c>
       <c r="B100">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
@@ -8062,7 +8062,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
@@ -8070,7 +8070,7 @@
         <v>80</v>
       </c>
       <c r="B102">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
@@ -8078,7 +8078,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
@@ -8086,7 +8086,7 @@
         <v>82</v>
       </c>
       <c r="B104">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105">
@@ -8094,7 +8094,7 @@
         <v>83</v>
       </c>
       <c r="B105">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106">
@@ -8102,7 +8102,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107">
@@ -8110,7 +8110,7 @@
         <v>85</v>
       </c>
       <c r="B107">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108">
@@ -8118,7 +8118,7 @@
         <v>86</v>
       </c>
       <c r="B108">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109">
@@ -8126,7 +8126,7 @@
         <v>87</v>
       </c>
       <c r="B109">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110">
@@ -8134,7 +8134,7 @@
         <v>88</v>
       </c>
       <c r="B110">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111">
@@ -8142,7 +8142,7 @@
         <v>89</v>
       </c>
       <c r="B111">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112">
@@ -8150,7 +8150,7 @@
         <v>90</v>
       </c>
       <c r="B112">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
@@ -8158,7 +8158,7 @@
         <v>91</v>
       </c>
       <c r="B113">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114">
@@ -8166,7 +8166,7 @@
         <v>92</v>
       </c>
       <c r="B114">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115">
@@ -8174,7 +8174,7 @@
         <v>93</v>
       </c>
       <c r="B115">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116">
@@ -8182,7 +8182,7 @@
         <v>94</v>
       </c>
       <c r="B116">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
@@ -8190,7 +8190,7 @@
         <v>95</v>
       </c>
       <c r="B117">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118">
@@ -8198,7 +8198,7 @@
         <v>96</v>
       </c>
       <c r="B118">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119">
@@ -8206,7 +8206,7 @@
         <v>97</v>
       </c>
       <c r="B119">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120">
@@ -8214,7 +8214,7 @@
         <v>98</v>
       </c>
       <c r="B120">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
@@ -8222,7 +8222,7 @@
         <v>99</v>
       </c>
       <c r="B121">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122">
@@ -8230,7 +8230,7 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123">
@@ -8238,7 +8238,7 @@
         <v>101</v>
       </c>
       <c r="B123">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124">
@@ -8246,7 +8246,7 @@
         <v>102</v>
       </c>
       <c r="B124">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125">
@@ -8254,7 +8254,7 @@
         <v>103</v>
       </c>
       <c r="B125">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
@@ -8262,7 +8262,7 @@
         <v>104</v>
       </c>
       <c r="B126">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127">
@@ -8270,7 +8270,7 @@
         <v>105</v>
       </c>
       <c r="B127">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128">
@@ -8278,7 +8278,7 @@
         <v>106</v>
       </c>
       <c r="B128">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
@@ -8286,7 +8286,7 @@
         <v>107</v>
       </c>
       <c r="B129">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
@@ -8294,7 +8294,7 @@
         <v>108</v>
       </c>
       <c r="B130">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
@@ -8302,7 +8302,7 @@
         <v>109</v>
       </c>
       <c r="B131">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
@@ -8310,7 +8310,7 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
@@ -8318,7 +8318,7 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134">
@@ -8326,7 +8326,7 @@
         <v>112</v>
       </c>
       <c r="B134">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
@@ -8334,7 +8334,7 @@
         <v>113</v>
       </c>
       <c r="B135">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136">
@@ -8342,7 +8342,7 @@
         <v>114</v>
       </c>
       <c r="B136">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137">
@@ -8350,7 +8350,7 @@
         <v>115</v>
       </c>
       <c r="B137">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138">
@@ -8358,7 +8358,7 @@
         <v>116</v>
       </c>
       <c r="B138">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139">
@@ -8366,7 +8366,7 @@
         <v>117</v>
       </c>
       <c r="B139">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140">
@@ -8374,7 +8374,7 @@
         <v>118</v>
       </c>
       <c r="B140">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141">
@@ -8382,7 +8382,7 @@
         <v>119</v>
       </c>
       <c r="B141">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142">
@@ -8390,7 +8390,7 @@
         <v>120</v>
       </c>
       <c r="B142">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="143">
@@ -8398,7 +8398,7 @@
         <v>121</v>
       </c>
       <c r="B143">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144">
@@ -8406,7 +8406,7 @@
         <v>122</v>
       </c>
       <c r="B144">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145">
@@ -8414,7 +8414,7 @@
         <v>123</v>
       </c>
       <c r="B145">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="146">
@@ -8422,7 +8422,7 @@
         <v>124</v>
       </c>
       <c r="B146">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147">
@@ -8430,7 +8430,7 @@
         <v>125</v>
       </c>
       <c r="B147">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148">
@@ -8438,7 +8438,7 @@
         <v>126</v>
       </c>
       <c r="B148">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149">
@@ -8446,7 +8446,7 @@
         <v>127</v>
       </c>
       <c r="B149">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150">
@@ -8454,7 +8454,7 @@
         <v>128</v>
       </c>
       <c r="B150">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151">
@@ -8462,7 +8462,7 @@
         <v>129</v>
       </c>
       <c r="B151">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152">
@@ -8470,7 +8470,7 @@
         <v>130</v>
       </c>
       <c r="B152">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153">
@@ -8478,7 +8478,7 @@
         <v>131</v>
       </c>
       <c r="B153">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154">
@@ -8486,7 +8486,7 @@
         <v>132</v>
       </c>
       <c r="B154">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155">
@@ -8494,7 +8494,7 @@
         <v>133</v>
       </c>
       <c r="B155">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156">
@@ -8502,7 +8502,7 @@
         <v>134</v>
       </c>
       <c r="B156">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157">
@@ -8510,7 +8510,7 @@
         <v>135</v>
       </c>
       <c r="B157">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158">
@@ -8518,7 +8518,7 @@
         <v>136</v>
       </c>
       <c r="B158">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159">
@@ -9567,7 +9567,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -9575,7 +9575,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -9583,7 +9583,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -9591,7 +9591,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -9599,7 +9599,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -9607,7 +9607,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -9615,7 +9615,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -9623,7 +9623,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -9631,7 +9631,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -9639,7 +9639,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -9647,7 +9647,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -9655,7 +9655,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -9663,7 +9663,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -9671,7 +9671,7 @@
         <v>-7</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -9679,7 +9679,7 @@
         <v>-6</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -9687,7 +9687,7 @@
         <v>-5</v>
       </c>
       <c r="B17">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -9695,7 +9695,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -9703,7 +9703,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -9711,7 +9711,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -9735,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -9751,7 +9751,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -9775,7 +9775,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -9791,7 +9791,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -9831,7 +9831,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -9847,7 +9847,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
@@ -9863,7 +9863,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -9879,7 +9879,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
@@ -9895,7 +9895,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -9911,7 +9911,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
@@ -9927,7 +9927,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48">
@@ -9943,7 +9943,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
@@ -9959,7 +9959,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
@@ -9975,7 +9975,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
@@ -9999,7 +9999,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
@@ -10015,7 +10015,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59">
@@ -10031,7 +10031,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
@@ -10039,7 +10039,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
@@ -10047,7 +10047,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63">
@@ -10055,7 +10055,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64">
@@ -10071,7 +10071,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
@@ -10087,7 +10087,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -10095,7 +10095,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -10103,7 +10103,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
@@ -10111,7 +10111,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
@@ -10119,7 +10119,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72">
@@ -10127,7 +10127,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73">
@@ -10135,7 +10135,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74">
@@ -10143,7 +10143,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
@@ -10151,7 +10151,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
@@ -10159,7 +10159,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77">
@@ -10167,7 +10167,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
@@ -10175,7 +10175,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79">
@@ -10183,7 +10183,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80">
@@ -10191,7 +10191,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
@@ -10199,7 +10199,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82">
@@ -10207,7 +10207,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
@@ -10215,7 +10215,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84">
@@ -10223,7 +10223,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
@@ -10231,7 +10231,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86">
@@ -10239,7 +10239,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87">
@@ -10247,7 +10247,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
@@ -10255,7 +10255,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89">
@@ -10263,7 +10263,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90">
@@ -10271,7 +10271,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91">
@@ -10279,7 +10279,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92">
@@ -10287,7 +10287,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93">
@@ -10295,7 +10295,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94">
@@ -10303,7 +10303,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95">
@@ -10311,7 +10311,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96">
@@ -10319,7 +10319,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97">
@@ -10327,7 +10327,7 @@
         <v>75</v>
       </c>
       <c r="B97">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98">
@@ -10335,7 +10335,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99">
@@ -10343,7 +10343,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100">
@@ -10351,7 +10351,7 @@
         <v>78</v>
       </c>
       <c r="B100">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101">
@@ -10359,7 +10359,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102">
@@ -10367,7 +10367,7 @@
         <v>80</v>
       </c>
       <c r="B102">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103">
@@ -10375,7 +10375,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104">
@@ -10383,7 +10383,7 @@
         <v>82</v>
       </c>
       <c r="B104">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
@@ -10391,7 +10391,7 @@
         <v>83</v>
       </c>
       <c r="B105">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
@@ -10399,7 +10399,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
@@ -10407,7 +10407,7 @@
         <v>85</v>
       </c>
       <c r="B107">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108">
@@ -10415,7 +10415,7 @@
         <v>86</v>
       </c>
       <c r="B108">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
@@ -10423,7 +10423,7 @@
         <v>87</v>
       </c>
       <c r="B109">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110">
@@ -10431,7 +10431,7 @@
         <v>88</v>
       </c>
       <c r="B110">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
@@ -10439,7 +10439,7 @@
         <v>89</v>
       </c>
       <c r="B111">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
@@ -10447,7 +10447,7 @@
         <v>90</v>
       </c>
       <c r="B112">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
@@ -10455,7 +10455,7 @@
         <v>91</v>
       </c>
       <c r="B113">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
@@ -10463,7 +10463,7 @@
         <v>92</v>
       </c>
       <c r="B114">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
@@ -10471,7 +10471,7 @@
         <v>93</v>
       </c>
       <c r="B115">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
@@ -10479,7 +10479,7 @@
         <v>94</v>
       </c>
       <c r="B116">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
@@ -10487,7 +10487,7 @@
         <v>95</v>
       </c>
       <c r="B117">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
@@ -10495,7 +10495,7 @@
         <v>96</v>
       </c>
       <c r="B118">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
@@ -10503,7 +10503,7 @@
         <v>97</v>
       </c>
       <c r="B119">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120">
@@ -10511,7 +10511,7 @@
         <v>98</v>
       </c>
       <c r="B120">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121">
@@ -10519,7 +10519,7 @@
         <v>99</v>
       </c>
       <c r="B121">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122">
@@ -10527,7 +10527,7 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
@@ -10535,7 +10535,7 @@
         <v>101</v>
       </c>
       <c r="B123">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
@@ -10543,7 +10543,7 @@
         <v>102</v>
       </c>
       <c r="B124">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
@@ -10551,7 +10551,7 @@
         <v>103</v>
       </c>
       <c r="B125">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126">
@@ -10559,7 +10559,7 @@
         <v>104</v>
       </c>
       <c r="B126">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
@@ -10567,7 +10567,7 @@
         <v>105</v>
       </c>
       <c r="B127">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128">
@@ -10575,7 +10575,7 @@
         <v>106</v>
       </c>
       <c r="B128">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129">
@@ -10583,7 +10583,7 @@
         <v>107</v>
       </c>
       <c r="B129">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
@@ -10591,7 +10591,7 @@
         <v>108</v>
       </c>
       <c r="B130">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131">
@@ -10599,7 +10599,7 @@
         <v>109</v>
       </c>
       <c r="B131">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
@@ -10607,7 +10607,7 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
@@ -10615,7 +10615,7 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134">
@@ -10623,7 +10623,7 @@
         <v>112</v>
       </c>
       <c r="B134">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135">
@@ -10631,7 +10631,7 @@
         <v>113</v>
       </c>
       <c r="B135">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136">
@@ -10639,7 +10639,7 @@
         <v>114</v>
       </c>
       <c r="B136">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137">
@@ -10647,7 +10647,7 @@
         <v>115</v>
       </c>
       <c r="B137">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138">
@@ -10655,7 +10655,7 @@
         <v>116</v>
       </c>
       <c r="B138">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
@@ -10663,7 +10663,7 @@
         <v>117</v>
       </c>
       <c r="B139">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140">
@@ -10671,7 +10671,7 @@
         <v>118</v>
       </c>
       <c r="B140">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141">
@@ -10679,7 +10679,7 @@
         <v>119</v>
       </c>
       <c r="B141">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142">
@@ -10687,7 +10687,7 @@
         <v>120</v>
       </c>
       <c r="B142">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143">
@@ -10695,7 +10695,7 @@
         <v>121</v>
       </c>
       <c r="B143">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144">
@@ -10703,7 +10703,7 @@
         <v>122</v>
       </c>
       <c r="B144">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145">
@@ -10711,7 +10711,7 @@
         <v>123</v>
       </c>
       <c r="B145">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146">
@@ -10719,7 +10719,7 @@
         <v>124</v>
       </c>
       <c r="B146">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="147">
@@ -10735,7 +10735,7 @@
         <v>126</v>
       </c>
       <c r="B148">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149">
@@ -10743,7 +10743,7 @@
         <v>127</v>
       </c>
       <c r="B149">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150">
@@ -10759,7 +10759,7 @@
         <v>129</v>
       </c>
       <c r="B151">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152">
@@ -10767,7 +10767,7 @@
         <v>130</v>
       </c>
       <c r="B152">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153">
@@ -10775,7 +10775,7 @@
         <v>131</v>
       </c>
       <c r="B153">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154">
@@ -10791,7 +10791,7 @@
         <v>133</v>
       </c>
       <c r="B155">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="156">
@@ -10799,7 +10799,7 @@
         <v>134</v>
       </c>
       <c r="B156">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157">
@@ -10815,7 +10815,7 @@
         <v>136</v>
       </c>
       <c r="B158">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159">
@@ -10823,7 +10823,7 @@
         <v>137</v>
       </c>
       <c r="B159">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160">
@@ -10839,7 +10839,7 @@
         <v>139</v>
       </c>
       <c r="B161">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162">
@@ -10847,7 +10847,7 @@
         <v>140</v>
       </c>
       <c r="B162">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163">
@@ -10871,7 +10871,7 @@
         <v>143</v>
       </c>
       <c r="B165">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166">
@@ -10895,7 +10895,7 @@
         <v>146</v>
       </c>
       <c r="B168">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="169">
@@ -11864,7 +11864,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -11872,7 +11872,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -11880,7 +11880,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -11888,7 +11888,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -11896,7 +11896,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -11904,7 +11904,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -11912,7 +11912,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -11920,7 +11920,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -11928,7 +11928,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -11936,7 +11936,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -11944,7 +11944,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -11952,7 +11952,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -11960,7 +11960,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -11968,7 +11968,7 @@
         <v>-7</v>
       </c>
       <c r="B15">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -11976,7 +11976,7 @@
         <v>-6</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -11984,7 +11984,7 @@
         <v>-5</v>
       </c>
       <c r="B17">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -11992,7 +11992,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -12000,7 +12000,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -12008,7 +12008,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -12016,7 +12016,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -12032,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -12040,7 +12040,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -12048,7 +12048,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -12088,7 +12088,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
@@ -12128,7 +12128,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -12144,7 +12144,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -12160,7 +12160,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
@@ -12168,7 +12168,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
@@ -12176,7 +12176,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
@@ -12184,7 +12184,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
@@ -12192,7 +12192,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
@@ -12200,7 +12200,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
@@ -12208,7 +12208,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
@@ -12216,7 +12216,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
@@ -12224,7 +12224,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
@@ -12232,7 +12232,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
@@ -12240,7 +12240,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
@@ -12248,7 +12248,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
@@ -12256,7 +12256,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -12264,7 +12264,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -12272,7 +12272,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -12280,7 +12280,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -12288,7 +12288,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -12296,7 +12296,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -12304,7 +12304,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -12312,7 +12312,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -12320,7 +12320,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
@@ -12328,7 +12328,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
@@ -12336,7 +12336,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
@@ -12344,7 +12344,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
@@ -12352,7 +12352,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
@@ -12360,7 +12360,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
@@ -12368,7 +12368,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66">
@@ -12376,7 +12376,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67">
@@ -12384,7 +12384,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
@@ -12392,7 +12392,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
@@ -12400,7 +12400,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
@@ -12408,7 +12408,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
@@ -12416,7 +12416,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
@@ -12424,7 +12424,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
@@ -12432,7 +12432,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74">
@@ -12440,7 +12440,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75">
@@ -12448,7 +12448,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76">
@@ -12456,7 +12456,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
@@ -12464,7 +12464,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
@@ -12472,7 +12472,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
@@ -12480,7 +12480,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80">
@@ -12488,7 +12488,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
@@ -12496,7 +12496,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
@@ -12504,7 +12504,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
@@ -12512,7 +12512,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
@@ -12520,7 +12520,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
@@ -12528,7 +12528,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
@@ -12536,7 +12536,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
@@ -12544,7 +12544,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
@@ -12552,7 +12552,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
@@ -12560,7 +12560,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
@@ -12568,7 +12568,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
@@ -12576,7 +12576,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
@@ -12584,7 +12584,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
@@ -12592,7 +12592,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
@@ -12600,7 +12600,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
@@ -12608,7 +12608,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
@@ -12616,7 +12616,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
@@ -12632,7 +12632,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
@@ -12640,7 +12640,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
@@ -12656,7 +12656,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102">
@@ -12672,7 +12672,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104">
@@ -12680,7 +12680,7 @@
         <v>82</v>
       </c>
       <c r="B104">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
@@ -12696,7 +12696,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
@@ -12712,7 +12712,7 @@
         <v>86</v>
       </c>
       <c r="B108">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109">
@@ -12720,7 +12720,7 @@
         <v>87</v>
       </c>
       <c r="B109">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110">
@@ -12736,7 +12736,7 @@
         <v>89</v>
       </c>
       <c r="B111">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112">
@@ -12760,7 +12760,7 @@
         <v>92</v>
       </c>
       <c r="B114">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115">
@@ -12776,7 +12776,7 @@
         <v>94</v>
       </c>
       <c r="B116">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117">
@@ -12816,7 +12816,7 @@
         <v>99</v>
       </c>
       <c r="B121">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122">
@@ -12856,7 +12856,7 @@
         <v>104</v>
       </c>
       <c r="B126">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127">
@@ -12952,7 +12952,7 @@
         <v>116</v>
       </c>
       <c r="B138">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139">
@@ -12968,7 +12968,7 @@
         <v>118</v>
       </c>
       <c r="B140">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141">
@@ -13024,7 +13024,7 @@
         <v>125</v>
       </c>
       <c r="B147">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148">
@@ -13040,7 +13040,7 @@
         <v>127</v>
       </c>
       <c r="B149">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150">
@@ -13056,7 +13056,7 @@
         <v>129</v>
       </c>
       <c r="B151">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="152">
@@ -13072,7 +13072,7 @@
         <v>131</v>
       </c>
       <c r="B153">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154">
@@ -13088,7 +13088,7 @@
         <v>133</v>
       </c>
       <c r="B155">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156">
@@ -13104,7 +13104,7 @@
         <v>135</v>
       </c>
       <c r="B157">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158">
@@ -13184,7 +13184,7 @@
         <v>145</v>
       </c>
       <c r="B167">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168">

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/ORF-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/ORF-raw-ss-lookup-tabbed-grade.xlsx
@@ -379,7 +379,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -443,7 +443,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +451,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +475,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +523,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -531,7 +531,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -675,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49">
@@ -755,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50">
@@ -763,7 +763,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51">
@@ -771,7 +771,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52">
@@ -779,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
@@ -787,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
@@ -795,7 +795,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
@@ -803,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
@@ -811,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
@@ -819,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
@@ -827,7 +827,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
@@ -835,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
@@ -843,7 +843,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61">
@@ -851,7 +851,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62">
@@ -859,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
@@ -867,7 +867,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
@@ -875,7 +875,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65">
@@ -883,7 +883,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
@@ -891,7 +891,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
@@ -907,7 +907,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
@@ -915,7 +915,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70">
@@ -923,7 +923,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
@@ -931,7 +931,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72">
@@ -939,7 +939,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
@@ -947,7 +947,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74">
@@ -955,7 +955,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75">
@@ -963,7 +963,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76">
@@ -971,7 +971,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
@@ -979,7 +979,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
@@ -987,7 +987,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
@@ -995,7 +995,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
@@ -2676,7 +2676,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -2684,7 +2684,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -2692,7 +2692,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -2700,7 +2700,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -2708,7 +2708,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2716,7 +2716,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -2724,7 +2724,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -2732,7 +2732,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -2740,7 +2740,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -2764,7 +2764,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -2804,7 +2804,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -2812,7 +2812,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -2820,7 +2820,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -2828,7 +2828,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -2852,7 +2852,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -2860,7 +2860,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -2868,7 +2868,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -2876,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -2884,7 +2884,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -2892,7 +2892,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
@@ -2900,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -2908,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -2916,7 +2916,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33">
@@ -2924,7 +2924,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -2932,7 +2932,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -2940,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -2948,7 +2948,7 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -2956,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
@@ -2964,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
@@ -2972,7 +2972,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -2980,7 +2980,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -2988,7 +2988,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -2996,7 +2996,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
@@ -3004,7 +3004,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
@@ -3012,7 +3012,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -3020,7 +3020,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
@@ -3028,7 +3028,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
@@ -3036,7 +3036,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
@@ -3044,7 +3044,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
@@ -3052,7 +3052,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51">
@@ -3068,7 +3068,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52">
@@ -3076,7 +3076,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53">
@@ -3084,7 +3084,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
@@ -3092,7 +3092,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55">
@@ -3100,7 +3100,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56">
@@ -3108,7 +3108,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57">
@@ -3116,7 +3116,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58">
@@ -3124,7 +3124,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59">
@@ -3132,7 +3132,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60">
@@ -3140,7 +3140,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61">
@@ -3148,7 +3148,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62">
@@ -3156,7 +3156,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63">
@@ -3164,7 +3164,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64">
@@ -3172,7 +3172,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
@@ -3180,7 +3180,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66">
@@ -3188,7 +3188,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67">
@@ -3196,7 +3196,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
@@ -3204,7 +3204,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69">
@@ -3212,7 +3212,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70">
@@ -3220,7 +3220,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71">
@@ -3228,7 +3228,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72">
@@ -3236,7 +3236,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73">
@@ -3244,7 +3244,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
@@ -3252,7 +3252,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
@@ -3260,7 +3260,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76">
@@ -3268,7 +3268,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77">
@@ -3276,7 +3276,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78">
@@ -3284,7 +3284,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79">
@@ -3292,7 +3292,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80">
@@ -3300,7 +3300,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
@@ -3308,7 +3308,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
@@ -3316,7 +3316,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
@@ -3324,7 +3324,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84">
@@ -3332,7 +3332,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85">
@@ -3340,7 +3340,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86">
@@ -3348,7 +3348,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87">
@@ -3356,7 +3356,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88">
@@ -3364,7 +3364,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89">
@@ -3372,7 +3372,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90">
@@ -3380,7 +3380,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91">
@@ -3396,7 +3396,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93">
@@ -3404,7 +3404,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
@@ -3420,7 +3420,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96">
@@ -3428,7 +3428,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97">
@@ -3444,7 +3444,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
@@ -4973,7 +4973,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -4981,7 +4981,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -4989,7 +4989,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -4997,7 +4997,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -5005,7 +5005,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -5013,7 +5013,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -5021,7 +5021,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -5029,7 +5029,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -5037,7 +5037,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -5045,7 +5045,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -5053,7 +5053,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -5061,7 +5061,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -5069,7 +5069,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -5077,7 +5077,7 @@
         <v>-7</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -5085,7 +5085,7 @@
         <v>-6</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -5093,7 +5093,7 @@
         <v>-5</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -5101,7 +5101,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -5109,7 +5109,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -5117,7 +5117,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -5125,7 +5125,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -5149,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -5165,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -5173,7 +5173,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -5189,7 +5189,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -5213,7 +5213,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -5229,7 +5229,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -5301,7 +5301,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
@@ -5317,7 +5317,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
@@ -5333,7 +5333,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
@@ -5349,7 +5349,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
@@ -5365,7 +5365,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52">
@@ -5373,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53">
@@ -5381,7 +5381,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54">
@@ -5389,7 +5389,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55">
@@ -5397,7 +5397,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56">
@@ -5405,7 +5405,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
@@ -5421,7 +5421,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
@@ -5429,7 +5429,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
@@ -5437,7 +5437,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61">
@@ -5445,7 +5445,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62">
@@ -5453,7 +5453,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63">
@@ -5461,7 +5461,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64">
@@ -5469,7 +5469,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65">
@@ -5477,7 +5477,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
@@ -5485,7 +5485,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
@@ -5493,7 +5493,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68">
@@ -5501,7 +5501,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69">
@@ -5509,7 +5509,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70">
@@ -5517,7 +5517,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71">
@@ -5525,7 +5525,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
@@ -5533,7 +5533,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73">
@@ -5541,7 +5541,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74">
@@ -5549,7 +5549,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75">
@@ -5557,7 +5557,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76">
@@ -5565,7 +5565,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77">
@@ -5573,7 +5573,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78">
@@ -5581,7 +5581,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
@@ -5589,7 +5589,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80">
@@ -5597,7 +5597,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
@@ -5605,7 +5605,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
@@ -5613,7 +5613,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83">
@@ -5621,7 +5621,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84">
@@ -5629,7 +5629,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85">
@@ -5637,7 +5637,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86">
@@ -5645,7 +5645,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87">
@@ -5653,7 +5653,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88">
@@ -5661,7 +5661,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89">
@@ -5669,7 +5669,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90">
@@ -5677,7 +5677,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91">
@@ -5685,7 +5685,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92">
@@ -5693,7 +5693,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
@@ -5701,7 +5701,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94">
@@ -5709,7 +5709,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
@@ -5717,7 +5717,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96">
@@ -5725,7 +5725,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
@@ -5733,7 +5733,7 @@
         <v>75</v>
       </c>
       <c r="B97">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98">
@@ -5741,7 +5741,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99">
@@ -5749,7 +5749,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100">
@@ -5757,7 +5757,7 @@
         <v>78</v>
       </c>
       <c r="B100">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101">
@@ -5765,7 +5765,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102">
@@ -5773,7 +5773,7 @@
         <v>80</v>
       </c>
       <c r="B102">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103">
@@ -5781,7 +5781,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104">
@@ -5789,7 +5789,7 @@
         <v>82</v>
       </c>
       <c r="B104">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105">
@@ -5797,7 +5797,7 @@
         <v>83</v>
       </c>
       <c r="B105">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106">
@@ -5805,7 +5805,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107">
@@ -5813,7 +5813,7 @@
         <v>85</v>
       </c>
       <c r="B107">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108">
@@ -5821,7 +5821,7 @@
         <v>86</v>
       </c>
       <c r="B108">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109">
@@ -5829,7 +5829,7 @@
         <v>87</v>
       </c>
       <c r="B109">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110">
@@ -5837,7 +5837,7 @@
         <v>88</v>
       </c>
       <c r="B110">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111">
@@ -5845,7 +5845,7 @@
         <v>89</v>
       </c>
       <c r="B111">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112">
@@ -5853,7 +5853,7 @@
         <v>90</v>
       </c>
       <c r="B112">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113">
@@ -5861,7 +5861,7 @@
         <v>91</v>
       </c>
       <c r="B113">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114">
@@ -5869,7 +5869,7 @@
         <v>92</v>
       </c>
       <c r="B114">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115">
@@ -5877,7 +5877,7 @@
         <v>93</v>
       </c>
       <c r="B115">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116">
@@ -5885,7 +5885,7 @@
         <v>94</v>
       </c>
       <c r="B116">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117">
@@ -5893,7 +5893,7 @@
         <v>95</v>
       </c>
       <c r="B117">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118">
@@ -5901,7 +5901,7 @@
         <v>96</v>
       </c>
       <c r="B118">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119">
@@ -5909,7 +5909,7 @@
         <v>97</v>
       </c>
       <c r="B119">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120">
@@ -5917,7 +5917,7 @@
         <v>98</v>
       </c>
       <c r="B120">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121">
@@ -5925,7 +5925,7 @@
         <v>99</v>
       </c>
       <c r="B121">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122">
@@ -5933,7 +5933,7 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123">
@@ -5941,7 +5941,7 @@
         <v>101</v>
       </c>
       <c r="B123">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124">
@@ -5949,7 +5949,7 @@
         <v>102</v>
       </c>
       <c r="B124">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125">
@@ -5957,7 +5957,7 @@
         <v>103</v>
       </c>
       <c r="B125">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126">
@@ -5965,7 +5965,7 @@
         <v>104</v>
       </c>
       <c r="B126">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127">
@@ -5973,7 +5973,7 @@
         <v>105</v>
       </c>
       <c r="B127">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128">
@@ -5981,7 +5981,7 @@
         <v>106</v>
       </c>
       <c r="B128">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129">
@@ -5989,7 +5989,7 @@
         <v>107</v>
       </c>
       <c r="B129">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130">
@@ -5997,7 +5997,7 @@
         <v>108</v>
       </c>
       <c r="B130">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131">
@@ -6005,7 +6005,7 @@
         <v>109</v>
       </c>
       <c r="B131">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
@@ -6013,7 +6013,7 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133">
@@ -6021,7 +6021,7 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134">
@@ -6029,7 +6029,7 @@
         <v>112</v>
       </c>
       <c r="B134">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135">
@@ -6037,7 +6037,7 @@
         <v>113</v>
       </c>
       <c r="B135">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136">
@@ -7270,7 +7270,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -7286,7 +7286,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -7334,7 +7334,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -7342,7 +7342,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -7350,7 +7350,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
@@ -7358,7 +7358,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -7366,7 +7366,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -7406,7 +7406,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -7414,7 +7414,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -7422,7 +7422,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -7446,7 +7446,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -7454,7 +7454,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -7478,7 +7478,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29">
@@ -7550,7 +7550,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -7566,7 +7566,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -7590,7 +7590,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -7606,7 +7606,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
@@ -7614,7 +7614,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
@@ -7622,7 +7622,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -7630,7 +7630,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48">
@@ -7638,7 +7638,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49">
@@ -7646,7 +7646,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50">
@@ -7654,7 +7654,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51">
@@ -7662,7 +7662,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52">
@@ -7670,7 +7670,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
@@ -7678,7 +7678,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
@@ -7686,7 +7686,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
@@ -7694,7 +7694,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
@@ -7702,7 +7702,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
@@ -7710,7 +7710,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
@@ -7718,7 +7718,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
@@ -7726,7 +7726,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
@@ -7734,7 +7734,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61">
@@ -7742,7 +7742,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62">
@@ -7750,7 +7750,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
@@ -7758,7 +7758,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
@@ -7766,7 +7766,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65">
@@ -7774,7 +7774,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
@@ -7782,7 +7782,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
@@ -7790,7 +7790,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
@@ -7798,7 +7798,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69">
@@ -7806,7 +7806,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70">
@@ -7814,7 +7814,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71">
@@ -7822,7 +7822,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72">
@@ -7830,7 +7830,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73">
@@ -7838,7 +7838,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74">
@@ -7846,7 +7846,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75">
@@ -7854,7 +7854,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76">
@@ -7862,7 +7862,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
@@ -7870,7 +7870,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
@@ -7878,7 +7878,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
@@ -7886,7 +7886,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80">
@@ -9567,7 +9567,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -9575,7 +9575,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -9583,7 +9583,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -9591,7 +9591,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -9599,7 +9599,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -9607,7 +9607,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -9615,7 +9615,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -9623,7 +9623,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -9631,7 +9631,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -9639,7 +9639,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -9647,7 +9647,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -9655,7 +9655,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -9663,7 +9663,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -9671,7 +9671,7 @@
         <v>-7</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -9679,7 +9679,7 @@
         <v>-6</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
@@ -9687,7 +9687,7 @@
         <v>-5</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
@@ -9695,7 +9695,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -9703,7 +9703,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -9711,7 +9711,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -9719,7 +9719,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -9735,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -9743,7 +9743,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -9751,7 +9751,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
@@ -9759,7 +9759,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
@@ -9767,7 +9767,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28">
@@ -9775,7 +9775,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -9783,7 +9783,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
@@ -9791,7 +9791,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -9799,7 +9799,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -9807,7 +9807,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -9815,7 +9815,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -9823,7 +9823,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -9831,7 +9831,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
@@ -9839,7 +9839,7 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -9847,7 +9847,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
@@ -9855,7 +9855,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -9863,7 +9863,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -9871,7 +9871,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -9879,7 +9879,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
@@ -9887,7 +9887,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
@@ -9895,7 +9895,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
@@ -9903,7 +9903,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
@@ -9911,7 +9911,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
@@ -9919,7 +9919,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
@@ -9927,7 +9927,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
@@ -9935,7 +9935,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
@@ -9943,7 +9943,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
@@ -9951,7 +9951,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
@@ -9959,7 +9959,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
@@ -9967,7 +9967,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53">
@@ -9975,7 +9975,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54">
@@ -9983,7 +9983,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
@@ -9991,7 +9991,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
@@ -9999,7 +9999,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57">
@@ -10007,7 +10007,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58">
@@ -10015,7 +10015,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
@@ -10023,7 +10023,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
@@ -10031,7 +10031,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
@@ -10039,7 +10039,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62">
@@ -10047,7 +10047,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63">
@@ -10055,7 +10055,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64">
@@ -10063,7 +10063,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65">
@@ -10071,7 +10071,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66">
@@ -10079,7 +10079,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
@@ -10087,7 +10087,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68">
@@ -10095,7 +10095,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69">
@@ -10103,7 +10103,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
@@ -10111,7 +10111,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
@@ -10119,7 +10119,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72">
@@ -10127,7 +10127,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
@@ -10135,7 +10135,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74">
@@ -10143,7 +10143,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75">
@@ -10151,7 +10151,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76">
@@ -10159,7 +10159,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77">
@@ -10167,7 +10167,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78">
@@ -10175,7 +10175,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79">
@@ -10183,7 +10183,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80">
@@ -10191,7 +10191,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81">
@@ -10199,7 +10199,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82">
@@ -10207,7 +10207,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
@@ -10215,7 +10215,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
@@ -10223,7 +10223,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85">
@@ -10231,7 +10231,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86">
@@ -10239,7 +10239,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87">
@@ -10247,7 +10247,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
@@ -10255,7 +10255,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89">
@@ -10263,7 +10263,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90">
@@ -10271,7 +10271,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91">
@@ -10279,7 +10279,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92">
@@ -10287,7 +10287,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93">
@@ -10295,7 +10295,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94">
@@ -10303,7 +10303,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95">
@@ -10311,7 +10311,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96">
@@ -10319,7 +10319,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97">
@@ -10327,7 +10327,7 @@
         <v>75</v>
       </c>
       <c r="B97">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98">
@@ -10335,7 +10335,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99">
@@ -10343,7 +10343,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100">
@@ -10351,7 +10351,7 @@
         <v>78</v>
       </c>
       <c r="B100">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101">
@@ -10359,7 +10359,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102">
@@ -10367,7 +10367,7 @@
         <v>80</v>
       </c>
       <c r="B102">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
@@ -10375,7 +10375,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104">
@@ -10383,7 +10383,7 @@
         <v>82</v>
       </c>
       <c r="B104">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105">
@@ -10391,7 +10391,7 @@
         <v>83</v>
       </c>
       <c r="B105">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106">
@@ -10399,7 +10399,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107">
@@ -10407,7 +10407,7 @@
         <v>85</v>
       </c>
       <c r="B107">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108">
@@ -10415,7 +10415,7 @@
         <v>86</v>
       </c>
       <c r="B108">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109">
@@ -10423,7 +10423,7 @@
         <v>87</v>
       </c>
       <c r="B109">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110">
@@ -10431,7 +10431,7 @@
         <v>88</v>
       </c>
       <c r="B110">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111">
@@ -10439,7 +10439,7 @@
         <v>89</v>
       </c>
       <c r="B111">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
@@ -10447,7 +10447,7 @@
         <v>90</v>
       </c>
       <c r="B112">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113">
@@ -10455,7 +10455,7 @@
         <v>91</v>
       </c>
       <c r="B113">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114">
@@ -10463,7 +10463,7 @@
         <v>92</v>
       </c>
       <c r="B114">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="115">
@@ -10471,7 +10471,7 @@
         <v>93</v>
       </c>
       <c r="B115">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116">
@@ -10479,7 +10479,7 @@
         <v>94</v>
       </c>
       <c r="B116">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117">
@@ -10487,7 +10487,7 @@
         <v>95</v>
       </c>
       <c r="B117">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118">
@@ -10495,7 +10495,7 @@
         <v>96</v>
       </c>
       <c r="B118">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119">
@@ -10503,7 +10503,7 @@
         <v>97</v>
       </c>
       <c r="B119">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120">
@@ -10511,7 +10511,7 @@
         <v>98</v>
       </c>
       <c r="B120">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
@@ -10519,7 +10519,7 @@
         <v>99</v>
       </c>
       <c r="B121">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122">
@@ -10527,7 +10527,7 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123">
@@ -10535,7 +10535,7 @@
         <v>101</v>
       </c>
       <c r="B123">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124">
@@ -10543,7 +10543,7 @@
         <v>102</v>
       </c>
       <c r="B124">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125">
@@ -10551,7 +10551,7 @@
         <v>103</v>
       </c>
       <c r="B125">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126">
@@ -10559,7 +10559,7 @@
         <v>104</v>
       </c>
       <c r="B126">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127">
@@ -10567,7 +10567,7 @@
         <v>105</v>
       </c>
       <c r="B127">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128">
@@ -10575,7 +10575,7 @@
         <v>106</v>
       </c>
       <c r="B128">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129">
@@ -10583,7 +10583,7 @@
         <v>107</v>
       </c>
       <c r="B129">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130">
@@ -10591,7 +10591,7 @@
         <v>108</v>
       </c>
       <c r="B130">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131">
@@ -10599,7 +10599,7 @@
         <v>109</v>
       </c>
       <c r="B131">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132">
@@ -10607,7 +10607,7 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133">
@@ -10615,7 +10615,7 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134">
@@ -10623,7 +10623,7 @@
         <v>112</v>
       </c>
       <c r="B134">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135">
@@ -10631,7 +10631,7 @@
         <v>113</v>
       </c>
       <c r="B135">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="136">
@@ -10639,7 +10639,7 @@
         <v>114</v>
       </c>
       <c r="B136">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137">
@@ -10647,7 +10647,7 @@
         <v>115</v>
       </c>
       <c r="B137">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138">
@@ -10655,7 +10655,7 @@
         <v>116</v>
       </c>
       <c r="B138">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139">
@@ -10663,7 +10663,7 @@
         <v>117</v>
       </c>
       <c r="B139">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140">
@@ -10671,7 +10671,7 @@
         <v>118</v>
       </c>
       <c r="B140">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="141">
@@ -10679,7 +10679,7 @@
         <v>119</v>
       </c>
       <c r="B141">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="142">
@@ -10687,7 +10687,7 @@
         <v>120</v>
       </c>
       <c r="B142">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="143">
@@ -10695,7 +10695,7 @@
         <v>121</v>
       </c>
       <c r="B143">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144">
@@ -10703,7 +10703,7 @@
         <v>122</v>
       </c>
       <c r="B144">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145">
@@ -10711,7 +10711,7 @@
         <v>123</v>
       </c>
       <c r="B145">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146">
@@ -10719,7 +10719,7 @@
         <v>124</v>
       </c>
       <c r="B146">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147">
@@ -10727,7 +10727,7 @@
         <v>125</v>
       </c>
       <c r="B147">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148">
@@ -10735,7 +10735,7 @@
         <v>126</v>
       </c>
       <c r="B148">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149">
@@ -10743,7 +10743,7 @@
         <v>127</v>
       </c>
       <c r="B149">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150">
@@ -10751,7 +10751,7 @@
         <v>128</v>
       </c>
       <c r="B150">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="151">
@@ -10759,7 +10759,7 @@
         <v>129</v>
       </c>
       <c r="B151">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152">
@@ -10767,7 +10767,7 @@
         <v>130</v>
       </c>
       <c r="B152">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153">
@@ -10775,7 +10775,7 @@
         <v>131</v>
       </c>
       <c r="B153">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154">
@@ -10783,7 +10783,7 @@
         <v>132</v>
       </c>
       <c r="B154">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="155">
@@ -10791,7 +10791,7 @@
         <v>133</v>
       </c>
       <c r="B155">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156">
@@ -10799,7 +10799,7 @@
         <v>134</v>
       </c>
       <c r="B156">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="157">
@@ -10807,7 +10807,7 @@
         <v>135</v>
       </c>
       <c r="B157">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="158">
@@ -10815,7 +10815,7 @@
         <v>136</v>
       </c>
       <c r="B158">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159">
@@ -10823,7 +10823,7 @@
         <v>137</v>
       </c>
       <c r="B159">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160">
@@ -10831,7 +10831,7 @@
         <v>138</v>
       </c>
       <c r="B160">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161">
@@ -10839,7 +10839,7 @@
         <v>139</v>
       </c>
       <c r="B161">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162">
@@ -10847,7 +10847,7 @@
         <v>140</v>
       </c>
       <c r="B162">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163">
@@ -10855,7 +10855,7 @@
         <v>141</v>
       </c>
       <c r="B163">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164">
@@ -10863,7 +10863,7 @@
         <v>142</v>
       </c>
       <c r="B164">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165">
@@ -10871,7 +10871,7 @@
         <v>143</v>
       </c>
       <c r="B165">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="166">
@@ -10879,7 +10879,7 @@
         <v>144</v>
       </c>
       <c r="B166">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="167">
@@ -10887,7 +10887,7 @@
         <v>145</v>
       </c>
       <c r="B167">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168">
@@ -10895,7 +10895,7 @@
         <v>146</v>
       </c>
       <c r="B168">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="169">
@@ -10903,7 +10903,7 @@
         <v>147</v>
       </c>
       <c r="B169">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="170">
@@ -10911,7 +10911,7 @@
         <v>148</v>
       </c>
       <c r="B170">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="171">
@@ -10919,7 +10919,7 @@
         <v>149</v>
       </c>
       <c r="B171">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="172">
@@ -10927,7 +10927,7 @@
         <v>150</v>
       </c>
       <c r="B172">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173">
@@ -10935,7 +10935,7 @@
         <v>151</v>
       </c>
       <c r="B173">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174">
@@ -10943,7 +10943,7 @@
         <v>152</v>
       </c>
       <c r="B174">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="175">
@@ -10951,7 +10951,7 @@
         <v>153</v>
       </c>
       <c r="B175">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176">
@@ -10959,7 +10959,7 @@
         <v>154</v>
       </c>
       <c r="B176">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177">
@@ -10967,7 +10967,7 @@
         <v>155</v>
       </c>
       <c r="B177">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178">
@@ -10975,7 +10975,7 @@
         <v>156</v>
       </c>
       <c r="B178">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179">
@@ -10983,7 +10983,7 @@
         <v>157</v>
       </c>
       <c r="B179">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180">
@@ -11864,7 +11864,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -11872,7 +11872,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -11880,7 +11880,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -11888,7 +11888,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -11896,7 +11896,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -11904,7 +11904,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -11912,7 +11912,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -11920,7 +11920,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -11928,7 +11928,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -11936,7 +11936,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -11944,7 +11944,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -12000,7 +12000,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -12016,7 +12016,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -12032,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -12040,7 +12040,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25">
@@ -12048,7 +12048,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -12056,7 +12056,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -12064,7 +12064,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28">
@@ -12072,7 +12072,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
@@ -12080,7 +12080,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
@@ -12088,7 +12088,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -12096,7 +12096,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -12104,7 +12104,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -12112,7 +12112,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -12120,7 +12120,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
@@ -12128,7 +12128,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
@@ -12136,7 +12136,7 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
@@ -12144,7 +12144,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
@@ -12152,7 +12152,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -12160,7 +12160,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
@@ -12168,7 +12168,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
@@ -12176,7 +12176,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -12184,7 +12184,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
@@ -12192,7 +12192,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -12200,7 +12200,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
@@ -12208,7 +12208,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -12216,7 +12216,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
@@ -12224,7 +12224,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -12232,7 +12232,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
@@ -12240,7 +12240,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50">
@@ -12248,7 +12248,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -12256,7 +12256,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -12264,7 +12264,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
@@ -12272,7 +12272,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
@@ -12280,7 +12280,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
@@ -12288,7 +12288,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
@@ -12296,7 +12296,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
@@ -12304,7 +12304,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58">
@@ -12312,7 +12312,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
@@ -12320,7 +12320,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
@@ -12328,7 +12328,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
@@ -12336,7 +12336,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
@@ -12344,7 +12344,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -12352,7 +12352,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
@@ -12360,7 +12360,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
@@ -12368,7 +12368,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66">
@@ -12376,7 +12376,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
@@ -12384,7 +12384,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
@@ -12392,7 +12392,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69">
@@ -12400,7 +12400,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70">
@@ -12408,7 +12408,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71">
@@ -12416,7 +12416,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72">
@@ -12424,7 +12424,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
@@ -12432,7 +12432,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
@@ -12440,7 +12440,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75">
@@ -12448,7 +12448,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
@@ -12456,7 +12456,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77">
@@ -12464,7 +12464,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78">
@@ -12472,7 +12472,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79">
@@ -12480,7 +12480,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
@@ -12488,7 +12488,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81">
@@ -12496,7 +12496,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82">
@@ -12504,7 +12504,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83">
@@ -12512,7 +12512,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
@@ -12520,7 +12520,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85">
@@ -12528,7 +12528,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86">
@@ -12536,7 +12536,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87">
@@ -12544,7 +12544,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88">
@@ -12552,7 +12552,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89">
@@ -12560,7 +12560,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90">
@@ -12568,7 +12568,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91">
@@ -12576,7 +12576,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
@@ -12584,7 +12584,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
@@ -12592,7 +12592,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94">
@@ -12600,7 +12600,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95">
@@ -12608,7 +12608,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
@@ -12616,7 +12616,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
@@ -12624,7 +12624,7 @@
         <v>75</v>
       </c>
       <c r="B97">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
@@ -12632,7 +12632,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
@@ -12640,7 +12640,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
@@ -12648,7 +12648,7 @@
         <v>78</v>
       </c>
       <c r="B100">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
@@ -12656,7 +12656,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102">
@@ -12664,7 +12664,7 @@
         <v>80</v>
       </c>
       <c r="B102">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
@@ -12672,7 +12672,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
@@ -12680,7 +12680,7 @@
         <v>82</v>
       </c>
       <c r="B104">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105">
@@ -12688,7 +12688,7 @@
         <v>83</v>
       </c>
       <c r="B105">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106">
@@ -12696,7 +12696,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107">
@@ -12704,7 +12704,7 @@
         <v>85</v>
       </c>
       <c r="B107">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108">
@@ -12712,7 +12712,7 @@
         <v>86</v>
       </c>
       <c r="B108">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109">
@@ -12720,7 +12720,7 @@
         <v>87</v>
       </c>
       <c r="B109">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110">
@@ -12728,7 +12728,7 @@
         <v>88</v>
       </c>
       <c r="B110">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111">
@@ -12736,7 +12736,7 @@
         <v>89</v>
       </c>
       <c r="B111">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112">
@@ -12744,7 +12744,7 @@
         <v>90</v>
       </c>
       <c r="B112">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113">
@@ -12752,7 +12752,7 @@
         <v>91</v>
       </c>
       <c r="B113">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114">
@@ -12760,7 +12760,7 @@
         <v>92</v>
       </c>
       <c r="B114">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115">
@@ -12768,7 +12768,7 @@
         <v>93</v>
       </c>
       <c r="B115">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116">
@@ -12776,7 +12776,7 @@
         <v>94</v>
       </c>
       <c r="B116">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117">
@@ -12784,7 +12784,7 @@
         <v>95</v>
       </c>
       <c r="B117">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="118">
@@ -12792,7 +12792,7 @@
         <v>96</v>
       </c>
       <c r="B118">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="119">
@@ -12800,7 +12800,7 @@
         <v>97</v>
       </c>
       <c r="B119">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120">
@@ -12808,7 +12808,7 @@
         <v>98</v>
       </c>
       <c r="B120">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121">
@@ -12816,7 +12816,7 @@
         <v>99</v>
       </c>
       <c r="B121">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122">
@@ -12824,7 +12824,7 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123">
@@ -12832,7 +12832,7 @@
         <v>101</v>
       </c>
       <c r="B123">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124">
@@ -12840,7 +12840,7 @@
         <v>102</v>
       </c>
       <c r="B124">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125">
@@ -12848,7 +12848,7 @@
         <v>103</v>
       </c>
       <c r="B125">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126">
@@ -12856,7 +12856,7 @@
         <v>104</v>
       </c>
       <c r="B126">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127">
@@ -12864,7 +12864,7 @@
         <v>105</v>
       </c>
       <c r="B127">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128">
@@ -12872,7 +12872,7 @@
         <v>106</v>
       </c>
       <c r="B128">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129">
@@ -12880,7 +12880,7 @@
         <v>107</v>
       </c>
       <c r="B129">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130">
@@ -12888,7 +12888,7 @@
         <v>108</v>
       </c>
       <c r="B130">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="131">
@@ -12896,7 +12896,7 @@
         <v>109</v>
       </c>
       <c r="B131">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="132">
@@ -12904,7 +12904,7 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133">
@@ -12912,7 +12912,7 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134">
@@ -12920,7 +12920,7 @@
         <v>112</v>
       </c>
       <c r="B134">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135">
@@ -12928,7 +12928,7 @@
         <v>113</v>
       </c>
       <c r="B135">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136">
@@ -12936,7 +12936,7 @@
         <v>114</v>
       </c>
       <c r="B136">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137">
@@ -12944,7 +12944,7 @@
         <v>115</v>
       </c>
       <c r="B137">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138">
@@ -12952,7 +12952,7 @@
         <v>116</v>
       </c>
       <c r="B138">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139">
@@ -12960,7 +12960,7 @@
         <v>117</v>
       </c>
       <c r="B139">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140">
@@ -12968,7 +12968,7 @@
         <v>118</v>
       </c>
       <c r="B140">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141">
@@ -12976,7 +12976,7 @@
         <v>119</v>
       </c>
       <c r="B141">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="142">
@@ -12984,7 +12984,7 @@
         <v>120</v>
       </c>
       <c r="B142">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143">
@@ -12992,7 +12992,7 @@
         <v>121</v>
       </c>
       <c r="B143">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144">
@@ -13000,7 +13000,7 @@
         <v>122</v>
       </c>
       <c r="B144">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145">
@@ -13016,7 +13016,7 @@
         <v>124</v>
       </c>
       <c r="B146">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="147">
@@ -13072,7 +13072,7 @@
         <v>131</v>
       </c>
       <c r="B153">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154">
@@ -13088,7 +13088,7 @@
         <v>133</v>
       </c>
       <c r="B155">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156">
@@ -13096,7 +13096,7 @@
         <v>134</v>
       </c>
       <c r="B156">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="157">
@@ -13104,7 +13104,7 @@
         <v>135</v>
       </c>
       <c r="B157">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="158">
@@ -13112,7 +13112,7 @@
         <v>136</v>
       </c>
       <c r="B158">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159">
@@ -13120,7 +13120,7 @@
         <v>137</v>
       </c>
       <c r="B159">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160">
@@ -13128,7 +13128,7 @@
         <v>138</v>
       </c>
       <c r="B160">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161">
@@ -13136,7 +13136,7 @@
         <v>139</v>
       </c>
       <c r="B161">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="162">
@@ -13144,7 +13144,7 @@
         <v>140</v>
       </c>
       <c r="B162">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163">
@@ -13152,7 +13152,7 @@
         <v>141</v>
       </c>
       <c r="B163">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164">
@@ -13160,7 +13160,7 @@
         <v>142</v>
       </c>
       <c r="B164">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="165">
@@ -13168,7 +13168,7 @@
         <v>143</v>
       </c>
       <c r="B165">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166">
@@ -13176,7 +13176,7 @@
         <v>144</v>
       </c>
       <c r="B166">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167">
@@ -13184,7 +13184,7 @@
         <v>145</v>
       </c>
       <c r="B167">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168">
@@ -13192,7 +13192,7 @@
         <v>146</v>
       </c>
       <c r="B168">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="169">
@@ -13200,7 +13200,7 @@
         <v>147</v>
       </c>
       <c r="B169">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="170">
@@ -13208,7 +13208,7 @@
         <v>148</v>
       </c>
       <c r="B170">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="171">
@@ -13216,7 +13216,7 @@
         <v>149</v>
       </c>
       <c r="B171">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="172">
@@ -13224,7 +13224,7 @@
         <v>150</v>
       </c>
       <c r="B172">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173">
@@ -13232,7 +13232,7 @@
         <v>151</v>
       </c>
       <c r="B173">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="174">
@@ -13240,7 +13240,7 @@
         <v>152</v>
       </c>
       <c r="B174">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="175">
@@ -13248,7 +13248,7 @@
         <v>153</v>
       </c>
       <c r="B175">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="176">
@@ -13256,7 +13256,7 @@
         <v>154</v>
       </c>
       <c r="B176">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177">
@@ -13264,7 +13264,7 @@
         <v>155</v>
       </c>
       <c r="B177">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178">
@@ -13272,7 +13272,7 @@
         <v>156</v>
       </c>
       <c r="B178">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179">
@@ -13280,7 +13280,7 @@
         <v>157</v>
       </c>
       <c r="B179">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180">
@@ -13288,7 +13288,7 @@
         <v>158</v>
       </c>
       <c r="B180">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="181">

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/ORF-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/ORF-raw-ss-lookup-tabbed-grade.xlsx
@@ -379,7 +379,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +387,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -443,7 +443,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -451,7 +451,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -459,7 +459,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -467,7 +467,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -475,7 +475,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
@@ -523,7 +523,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -531,7 +531,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38">
@@ -675,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -683,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -715,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
@@ -755,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50">
@@ -763,7 +763,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51">
@@ -771,7 +771,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52">
@@ -779,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
@@ -787,7 +787,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
@@ -795,7 +795,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
@@ -803,7 +803,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56">
@@ -811,7 +811,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
@@ -819,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
@@ -827,7 +827,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
@@ -835,7 +835,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
@@ -843,7 +843,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
@@ -851,7 +851,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
@@ -859,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
@@ -867,7 +867,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
@@ -875,7 +875,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
@@ -883,7 +883,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66">
@@ -891,7 +891,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67">
@@ -899,7 +899,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
@@ -907,7 +907,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69">
@@ -915,7 +915,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
@@ -923,7 +923,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71">
@@ -931,7 +931,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
@@ -939,7 +939,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
@@ -947,7 +947,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74">
@@ -955,7 +955,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75">
@@ -963,7 +963,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
@@ -971,7 +971,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77">
@@ -979,7 +979,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
@@ -987,7 +987,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79">
@@ -995,7 +995,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80">
@@ -2676,7 +2676,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -2684,7 +2684,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -2692,7 +2692,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2700,7 +2700,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -2708,7 +2708,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2716,7 +2716,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -2724,7 +2724,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -2732,7 +2732,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -2740,7 +2740,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -2764,7 +2764,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
@@ -2804,7 +2804,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -2812,7 +2812,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
@@ -2820,7 +2820,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
@@ -2828,7 +2828,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -2844,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -2852,7 +2852,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -2860,7 +2860,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -2868,7 +2868,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
@@ -2876,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -2884,7 +2884,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -2892,7 +2892,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -2900,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -2908,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -2916,7 +2916,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -2924,7 +2924,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -2932,7 +2932,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -2940,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -2948,7 +2948,7 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -2956,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -2964,7 +2964,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39">
@@ -2972,7 +2972,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -2980,7 +2980,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -2988,7 +2988,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
@@ -2996,7 +2996,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
@@ -3004,7 +3004,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
@@ -3012,7 +3012,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -3020,7 +3020,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
@@ -3028,7 +3028,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
@@ -3036,7 +3036,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
@@ -3044,7 +3044,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
@@ -3052,7 +3052,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
@@ -3068,7 +3068,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
@@ -3076,7 +3076,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
@@ -3084,7 +3084,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54">
@@ -3092,7 +3092,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55">
@@ -3100,7 +3100,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56">
@@ -3108,7 +3108,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57">
@@ -3116,7 +3116,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
@@ -3124,7 +3124,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
@@ -3132,7 +3132,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
@@ -3140,7 +3140,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61">
@@ -3148,7 +3148,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
@@ -3156,7 +3156,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63">
@@ -3164,7 +3164,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64">
@@ -3172,7 +3172,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65">
@@ -3180,7 +3180,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66">
@@ -3188,7 +3188,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67">
@@ -3196,7 +3196,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68">
@@ -3204,7 +3204,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69">
@@ -3212,7 +3212,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70">
@@ -3220,7 +3220,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
@@ -3228,7 +3228,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
@@ -3236,7 +3236,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
@@ -3244,7 +3244,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
@@ -3252,7 +3252,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
@@ -3260,7 +3260,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76">
@@ -3268,7 +3268,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77">
@@ -3276,7 +3276,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
@@ -3284,7 +3284,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
@@ -3292,7 +3292,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
@@ -3300,7 +3300,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81">
@@ -3308,7 +3308,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82">
@@ -3316,7 +3316,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83">
@@ -3324,7 +3324,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
@@ -3332,7 +3332,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
@@ -3340,7 +3340,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
@@ -3348,7 +3348,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87">
@@ -3356,7 +3356,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88">
@@ -3364,7 +3364,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89">
@@ -3372,7 +3372,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90">
@@ -3380,7 +3380,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91">
@@ -3396,7 +3396,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93">
@@ -3404,7 +3404,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94">
@@ -3420,7 +3420,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
@@ -3428,7 +3428,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
@@ -3444,7 +3444,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100">
@@ -4973,7 +4973,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -4981,7 +4981,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -4989,7 +4989,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -4997,7 +4997,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -5005,7 +5005,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -5013,7 +5013,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -5021,7 +5021,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -5029,7 +5029,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -5037,7 +5037,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -5045,7 +5045,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -5053,7 +5053,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
@@ -5061,7 +5061,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -5069,7 +5069,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -5077,7 +5077,7 @@
         <v>-7</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -5085,7 +5085,7 @@
         <v>-6</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -5093,7 +5093,7 @@
         <v>-5</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -5101,7 +5101,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -5109,7 +5109,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -5117,7 +5117,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -5125,7 +5125,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -5149,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -5165,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -5173,7 +5173,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -5189,7 +5189,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -5197,7 +5197,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -5213,7 +5213,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
@@ -5229,7 +5229,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
@@ -5301,7 +5301,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44">
@@ -5317,7 +5317,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
@@ -5333,7 +5333,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48">
@@ -5349,7 +5349,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
@@ -5365,7 +5365,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52">
@@ -5373,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
@@ -5381,7 +5381,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54">
@@ -5389,7 +5389,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55">
@@ -5397,7 +5397,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56">
@@ -5405,7 +5405,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57">
@@ -5421,7 +5421,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
@@ -5429,7 +5429,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60">
@@ -5437,7 +5437,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61">
@@ -5445,7 +5445,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62">
@@ -5453,7 +5453,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63">
@@ -5461,7 +5461,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64">
@@ -5469,7 +5469,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65">
@@ -5477,7 +5477,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66">
@@ -5485,7 +5485,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67">
@@ -5493,7 +5493,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68">
@@ -5501,7 +5501,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
@@ -5509,7 +5509,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
@@ -5517,7 +5517,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71">
@@ -5525,7 +5525,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72">
@@ -5533,7 +5533,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
@@ -5541,7 +5541,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
@@ -5549,7 +5549,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75">
@@ -5557,7 +5557,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76">
@@ -5565,7 +5565,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77">
@@ -5573,7 +5573,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
@@ -5581,7 +5581,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
@@ -5589,7 +5589,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80">
@@ -5597,7 +5597,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81">
@@ -5605,7 +5605,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82">
@@ -5613,7 +5613,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83">
@@ -5621,7 +5621,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84">
@@ -5629,7 +5629,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
@@ -5637,7 +5637,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
@@ -5645,7 +5645,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87">
@@ -5653,7 +5653,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88">
@@ -5661,7 +5661,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89">
@@ -5669,7 +5669,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90">
@@ -5677,7 +5677,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91">
@@ -5685,7 +5685,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92">
@@ -5693,7 +5693,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93">
@@ -5701,7 +5701,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94">
@@ -5709,7 +5709,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95">
@@ -5717,7 +5717,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96">
@@ -5725,7 +5725,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97">
@@ -5733,7 +5733,7 @@
         <v>75</v>
       </c>
       <c r="B97">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
@@ -5741,7 +5741,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99">
@@ -5749,7 +5749,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
@@ -5757,7 +5757,7 @@
         <v>78</v>
       </c>
       <c r="B100">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101">
@@ -5765,7 +5765,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
@@ -5773,7 +5773,7 @@
         <v>80</v>
       </c>
       <c r="B102">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103">
@@ -5781,7 +5781,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104">
@@ -5789,7 +5789,7 @@
         <v>82</v>
       </c>
       <c r="B104">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105">
@@ -5797,7 +5797,7 @@
         <v>83</v>
       </c>
       <c r="B105">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106">
@@ -5805,7 +5805,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107">
@@ -5813,7 +5813,7 @@
         <v>85</v>
       </c>
       <c r="B107">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108">
@@ -5821,7 +5821,7 @@
         <v>86</v>
       </c>
       <c r="B108">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109">
@@ -5829,7 +5829,7 @@
         <v>87</v>
       </c>
       <c r="B109">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110">
@@ -5837,7 +5837,7 @@
         <v>88</v>
       </c>
       <c r="B110">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111">
@@ -5845,7 +5845,7 @@
         <v>89</v>
       </c>
       <c r="B111">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
@@ -5853,7 +5853,7 @@
         <v>90</v>
       </c>
       <c r="B112">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113">
@@ -5861,7 +5861,7 @@
         <v>91</v>
       </c>
       <c r="B113">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114">
@@ -5869,7 +5869,7 @@
         <v>92</v>
       </c>
       <c r="B114">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115">
@@ -5877,7 +5877,7 @@
         <v>93</v>
       </c>
       <c r="B115">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116">
@@ -5885,7 +5885,7 @@
         <v>94</v>
       </c>
       <c r="B116">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117">
@@ -5893,7 +5893,7 @@
         <v>95</v>
       </c>
       <c r="B117">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118">
@@ -5901,7 +5901,7 @@
         <v>96</v>
       </c>
       <c r="B118">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119">
@@ -5909,7 +5909,7 @@
         <v>97</v>
       </c>
       <c r="B119">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120">
@@ -5917,7 +5917,7 @@
         <v>98</v>
       </c>
       <c r="B120">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121">
@@ -5925,7 +5925,7 @@
         <v>99</v>
       </c>
       <c r="B121">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
@@ -5933,7 +5933,7 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
@@ -5941,7 +5941,7 @@
         <v>101</v>
       </c>
       <c r="B123">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124">
@@ -5949,7 +5949,7 @@
         <v>102</v>
       </c>
       <c r="B124">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125">
@@ -5957,7 +5957,7 @@
         <v>103</v>
       </c>
       <c r="B125">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126">
@@ -5965,7 +5965,7 @@
         <v>104</v>
       </c>
       <c r="B126">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127">
@@ -5973,7 +5973,7 @@
         <v>105</v>
       </c>
       <c r="B127">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128">
@@ -5981,7 +5981,7 @@
         <v>106</v>
       </c>
       <c r="B128">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129">
@@ -5989,7 +5989,7 @@
         <v>107</v>
       </c>
       <c r="B129">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
@@ -5997,7 +5997,7 @@
         <v>108</v>
       </c>
       <c r="B130">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131">
@@ -6005,7 +6005,7 @@
         <v>109</v>
       </c>
       <c r="B131">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132">
@@ -6013,7 +6013,7 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133">
@@ -6021,7 +6021,7 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134">
@@ -6029,7 +6029,7 @@
         <v>112</v>
       </c>
       <c r="B134">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135">
@@ -6037,7 +6037,7 @@
         <v>113</v>
       </c>
       <c r="B135">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136">
@@ -7270,7 +7270,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -7278,7 +7278,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -7286,7 +7286,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -7294,7 +7294,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -7302,7 +7302,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -7310,7 +7310,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -7318,7 +7318,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -7326,7 +7326,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -7334,7 +7334,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -7342,7 +7342,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -7350,7 +7350,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -7358,7 +7358,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -7366,7 +7366,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -7374,7 +7374,7 @@
         <v>-7</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -7382,7 +7382,7 @@
         <v>-6</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -7390,7 +7390,7 @@
         <v>-5</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -7398,7 +7398,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -7406,7 +7406,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -7414,7 +7414,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -7422,7 +7422,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -7438,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -7446,7 +7446,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -7454,7 +7454,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -7462,7 +7462,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -7470,7 +7470,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -7478,7 +7478,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -7486,7 +7486,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -7494,7 +7494,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -7502,7 +7502,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -7510,7 +7510,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -7518,7 +7518,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
@@ -7526,7 +7526,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
@@ -7534,7 +7534,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
@@ -7542,7 +7542,7 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -7550,7 +7550,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -7558,7 +7558,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -7566,7 +7566,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
@@ -7574,7 +7574,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -7582,7 +7582,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -7590,7 +7590,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>113</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43">
@@ -7598,7 +7598,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
@@ -7606,7 +7606,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45">
@@ -7614,7 +7614,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46">
@@ -7622,7 +7622,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -7630,7 +7630,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
@@ -7638,7 +7638,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
@@ -7646,7 +7646,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
@@ -7654,7 +7654,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
@@ -7662,7 +7662,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
@@ -7670,7 +7670,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
@@ -7678,7 +7678,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54">
@@ -7686,7 +7686,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55">
@@ -7694,7 +7694,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56">
@@ -7702,7 +7702,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57">
@@ -7710,7 +7710,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58">
@@ -7718,7 +7718,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
@@ -7726,7 +7726,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60">
@@ -7734,7 +7734,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
@@ -7742,7 +7742,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
@@ -7750,7 +7750,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
@@ -7758,7 +7758,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64">
@@ -7766,7 +7766,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
@@ -7774,7 +7774,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
@@ -7782,7 +7782,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
@@ -7790,7 +7790,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68">
@@ -7798,7 +7798,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69">
@@ -7806,7 +7806,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70">
@@ -7814,7 +7814,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71">
@@ -7822,7 +7822,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
@@ -7830,7 +7830,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73">
@@ -7838,7 +7838,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
@@ -7846,7 +7846,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
@@ -7854,7 +7854,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>128</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
@@ -7862,7 +7862,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77">
@@ -7870,7 +7870,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78">
@@ -7878,7 +7878,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>129</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
@@ -7886,7 +7886,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80">
@@ -7894,7 +7894,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81">
@@ -7902,7 +7902,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82">
@@ -7910,7 +7910,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83">
@@ -7918,7 +7918,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84">
@@ -7926,7 +7926,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85">
@@ -7934,7 +7934,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86">
@@ -7942,7 +7942,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87">
@@ -7950,7 +7950,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88">
@@ -7958,7 +7958,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89">
@@ -7966,7 +7966,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
@@ -7974,7 +7974,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
@@ -7982,7 +7982,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92">
@@ -7990,7 +7990,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93">
@@ -7998,7 +7998,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94">
@@ -8006,7 +8006,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95">
@@ -8014,7 +8014,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96">
@@ -8022,7 +8022,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97">
@@ -8030,7 +8030,7 @@
         <v>75</v>
       </c>
       <c r="B97">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
@@ -8038,7 +8038,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99">
@@ -8046,7 +8046,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100">
@@ -8054,7 +8054,7 @@
         <v>78</v>
       </c>
       <c r="B100">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101">
@@ -8062,7 +8062,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102">
@@ -8070,7 +8070,7 @@
         <v>80</v>
       </c>
       <c r="B102">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103">
@@ -8078,7 +8078,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104">
@@ -8086,7 +8086,7 @@
         <v>82</v>
       </c>
       <c r="B104">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105">
@@ -8094,7 +8094,7 @@
         <v>83</v>
       </c>
       <c r="B105">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106">
@@ -8102,7 +8102,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107">
@@ -8110,7 +8110,7 @@
         <v>85</v>
       </c>
       <c r="B107">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108">
@@ -8118,7 +8118,7 @@
         <v>86</v>
       </c>
       <c r="B108">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109">
@@ -8126,7 +8126,7 @@
         <v>87</v>
       </c>
       <c r="B109">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110">
@@ -8134,7 +8134,7 @@
         <v>88</v>
       </c>
       <c r="B110">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111">
@@ -8142,7 +8142,7 @@
         <v>89</v>
       </c>
       <c r="B111">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112">
@@ -8150,7 +8150,7 @@
         <v>90</v>
       </c>
       <c r="B112">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
@@ -8158,7 +8158,7 @@
         <v>91</v>
       </c>
       <c r="B113">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114">
@@ -8166,7 +8166,7 @@
         <v>92</v>
       </c>
       <c r="B114">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115">
@@ -8174,7 +8174,7 @@
         <v>93</v>
       </c>
       <c r="B115">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116">
@@ -8182,7 +8182,7 @@
         <v>94</v>
       </c>
       <c r="B116">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
@@ -8190,7 +8190,7 @@
         <v>95</v>
       </c>
       <c r="B117">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118">
@@ -8198,7 +8198,7 @@
         <v>96</v>
       </c>
       <c r="B118">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119">
@@ -8206,7 +8206,7 @@
         <v>97</v>
       </c>
       <c r="B119">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120">
@@ -8214,7 +8214,7 @@
         <v>98</v>
       </c>
       <c r="B120">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121">
@@ -8222,7 +8222,7 @@
         <v>99</v>
       </c>
       <c r="B121">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
@@ -8230,7 +8230,7 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123">
@@ -8238,7 +8238,7 @@
         <v>101</v>
       </c>
       <c r="B123">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124">
@@ -8246,7 +8246,7 @@
         <v>102</v>
       </c>
       <c r="B124">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125">
@@ -8254,7 +8254,7 @@
         <v>103</v>
       </c>
       <c r="B125">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126">
@@ -8262,7 +8262,7 @@
         <v>104</v>
       </c>
       <c r="B126">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127">
@@ -8270,7 +8270,7 @@
         <v>105</v>
       </c>
       <c r="B127">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128">
@@ -8278,7 +8278,7 @@
         <v>106</v>
       </c>
       <c r="B128">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129">
@@ -8286,7 +8286,7 @@
         <v>107</v>
       </c>
       <c r="B129">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130">
@@ -8294,7 +8294,7 @@
         <v>108</v>
       </c>
       <c r="B130">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131">
@@ -8302,7 +8302,7 @@
         <v>109</v>
       </c>
       <c r="B131">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132">
@@ -8310,7 +8310,7 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133">
@@ -8318,7 +8318,7 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134">
@@ -8326,7 +8326,7 @@
         <v>112</v>
       </c>
       <c r="B134">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135">
@@ -8334,7 +8334,7 @@
         <v>113</v>
       </c>
       <c r="B135">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="136">
@@ -8342,7 +8342,7 @@
         <v>114</v>
       </c>
       <c r="B136">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137">
@@ -8350,7 +8350,7 @@
         <v>115</v>
       </c>
       <c r="B137">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138">
@@ -8358,7 +8358,7 @@
         <v>116</v>
       </c>
       <c r="B138">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139">
@@ -8366,7 +8366,7 @@
         <v>117</v>
       </c>
       <c r="B139">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140">
@@ -8374,7 +8374,7 @@
         <v>118</v>
       </c>
       <c r="B140">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141">
@@ -8382,7 +8382,7 @@
         <v>119</v>
       </c>
       <c r="B141">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142">
@@ -8390,7 +8390,7 @@
         <v>120</v>
       </c>
       <c r="B142">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143">
@@ -8398,7 +8398,7 @@
         <v>121</v>
       </c>
       <c r="B143">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144">
@@ -8406,7 +8406,7 @@
         <v>122</v>
       </c>
       <c r="B144">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145">
@@ -8414,7 +8414,7 @@
         <v>123</v>
       </c>
       <c r="B145">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146">
@@ -8422,7 +8422,7 @@
         <v>124</v>
       </c>
       <c r="B146">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147">
@@ -8430,7 +8430,7 @@
         <v>125</v>
       </c>
       <c r="B147">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148">
@@ -8438,7 +8438,7 @@
         <v>126</v>
       </c>
       <c r="B148">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149">
@@ -8446,7 +8446,7 @@
         <v>127</v>
       </c>
       <c r="B149">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150">
@@ -8454,7 +8454,7 @@
         <v>128</v>
       </c>
       <c r="B150">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151">
@@ -8462,7 +8462,7 @@
         <v>129</v>
       </c>
       <c r="B151">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152">
@@ -8470,7 +8470,7 @@
         <v>130</v>
       </c>
       <c r="B152">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153">
@@ -8478,7 +8478,7 @@
         <v>131</v>
       </c>
       <c r="B153">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154">
@@ -8486,7 +8486,7 @@
         <v>132</v>
       </c>
       <c r="B154">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155">
@@ -8494,7 +8494,7 @@
         <v>133</v>
       </c>
       <c r="B155">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156">
@@ -8502,7 +8502,7 @@
         <v>134</v>
       </c>
       <c r="B156">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="157">
@@ -8510,7 +8510,7 @@
         <v>135</v>
       </c>
       <c r="B157">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158">
@@ -8518,7 +8518,7 @@
         <v>136</v>
       </c>
       <c r="B158">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="159">
@@ -8526,7 +8526,7 @@
         <v>137</v>
       </c>
       <c r="B159">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160">
@@ -9567,7 +9567,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -9575,7 +9575,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -9583,7 +9583,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -9591,7 +9591,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -9599,7 +9599,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -9607,7 +9607,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -9615,7 +9615,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -9623,7 +9623,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -9631,7 +9631,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -9639,7 +9639,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -9647,7 +9647,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -9655,7 +9655,7 @@
         <v>-9</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -9663,7 +9663,7 @@
         <v>-8</v>
       </c>
       <c r="B14">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -9671,7 +9671,7 @@
         <v>-7</v>
       </c>
       <c r="B15">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -9679,7 +9679,7 @@
         <v>-6</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -9687,7 +9687,7 @@
         <v>-5</v>
       </c>
       <c r="B17">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -9695,7 +9695,7 @@
         <v>-4</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -9703,7 +9703,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -9711,7 +9711,7 @@
         <v>-2</v>
       </c>
       <c r="B20">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -9719,7 +9719,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -9735,7 +9735,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
@@ -9743,7 +9743,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -9751,7 +9751,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -9759,7 +9759,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -9767,7 +9767,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -9775,7 +9775,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -9783,7 +9783,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -9791,7 +9791,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
@@ -9799,7 +9799,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -9807,7 +9807,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -9815,7 +9815,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -9823,7 +9823,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -9831,7 +9831,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -9839,7 +9839,7 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -9847,7 +9847,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
@@ -9855,7 +9855,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -9863,7 +9863,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -9871,7 +9871,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
@@ -9879,7 +9879,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
@@ -9887,7 +9887,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -9895,7 +9895,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
@@ -9903,7 +9903,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -9911,7 +9911,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
@@ -9919,7 +9919,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
@@ -9927,7 +9927,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48">
@@ -9935,7 +9935,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49">
@@ -9943,7 +9943,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
@@ -9951,7 +9951,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
@@ -9959,7 +9959,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52">
@@ -9967,7 +9967,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53">
@@ -9975,7 +9975,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
@@ -9983,7 +9983,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
@@ -9991,7 +9991,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
@@ -9999,7 +9999,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57">
@@ -10007,7 +10007,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
@@ -10015,7 +10015,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59">
@@ -10023,7 +10023,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
@@ -10031,7 +10031,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
@@ -10039,7 +10039,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
@@ -10047,7 +10047,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63">
@@ -10055,7 +10055,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64">
@@ -10063,7 +10063,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65">
@@ -10071,7 +10071,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66">
@@ -10079,7 +10079,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
@@ -10087,7 +10087,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -10095,7 +10095,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -10103,7 +10103,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
@@ -10111,7 +10111,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
@@ -10119,7 +10119,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72">
@@ -10127,7 +10127,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73">
@@ -10135,7 +10135,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74">
@@ -10143,7 +10143,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
@@ -10151,7 +10151,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
@@ -10159,7 +10159,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77">
@@ -10167,7 +10167,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
@@ -10175,7 +10175,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79">
@@ -10183,7 +10183,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80">
@@ -10191,7 +10191,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
@@ -10199,7 +10199,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82">
@@ -10207,7 +10207,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
@@ -10215,7 +10215,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84">
@@ -10223,7 +10223,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
@@ -10231,7 +10231,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86">
@@ -10239,7 +10239,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87">
@@ -10247,7 +10247,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88">
@@ -10255,7 +10255,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89">
@@ -10263,7 +10263,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90">
@@ -10271,7 +10271,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91">
@@ -10279,7 +10279,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92">
@@ -10287,7 +10287,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93">
@@ -10295,7 +10295,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94">
@@ -10303,7 +10303,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95">
@@ -10311,7 +10311,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96">
@@ -10319,7 +10319,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97">
@@ -10327,7 +10327,7 @@
         <v>75</v>
       </c>
       <c r="B97">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98">
@@ -10335,7 +10335,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99">
@@ -10343,7 +10343,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100">
@@ -10351,7 +10351,7 @@
         <v>78</v>
       </c>
       <c r="B100">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101">
@@ -10359,7 +10359,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102">
@@ -10367,7 +10367,7 @@
         <v>80</v>
       </c>
       <c r="B102">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103">
@@ -10375,7 +10375,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104">
@@ -10383,7 +10383,7 @@
         <v>82</v>
       </c>
       <c r="B104">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
@@ -10391,7 +10391,7 @@
         <v>83</v>
       </c>
       <c r="B105">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
@@ -10399,7 +10399,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107">
@@ -10407,7 +10407,7 @@
         <v>85</v>
       </c>
       <c r="B107">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108">
@@ -10415,7 +10415,7 @@
         <v>86</v>
       </c>
       <c r="B108">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
@@ -10423,7 +10423,7 @@
         <v>87</v>
       </c>
       <c r="B109">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110">
@@ -10431,7 +10431,7 @@
         <v>88</v>
       </c>
       <c r="B110">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
@@ -10439,7 +10439,7 @@
         <v>89</v>
       </c>
       <c r="B111">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
@@ -10447,7 +10447,7 @@
         <v>90</v>
       </c>
       <c r="B112">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113">
@@ -10455,7 +10455,7 @@
         <v>91</v>
       </c>
       <c r="B113">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114">
@@ -10463,7 +10463,7 @@
         <v>92</v>
       </c>
       <c r="B114">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
@@ -10471,7 +10471,7 @@
         <v>93</v>
       </c>
       <c r="B115">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116">
@@ -10479,7 +10479,7 @@
         <v>94</v>
       </c>
       <c r="B116">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117">
@@ -10487,7 +10487,7 @@
         <v>95</v>
       </c>
       <c r="B117">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118">
@@ -10495,7 +10495,7 @@
         <v>96</v>
       </c>
       <c r="B118">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
@@ -10503,7 +10503,7 @@
         <v>97</v>
       </c>
       <c r="B119">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120">
@@ -10511,7 +10511,7 @@
         <v>98</v>
       </c>
       <c r="B120">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121">
@@ -10519,7 +10519,7 @@
         <v>99</v>
       </c>
       <c r="B121">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122">
@@ -10527,7 +10527,7 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123">
@@ -10535,7 +10535,7 @@
         <v>101</v>
       </c>
       <c r="B123">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124">
@@ -10543,7 +10543,7 @@
         <v>102</v>
       </c>
       <c r="B124">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125">
@@ -10551,7 +10551,7 @@
         <v>103</v>
       </c>
       <c r="B125">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126">
@@ -10559,7 +10559,7 @@
         <v>104</v>
       </c>
       <c r="B126">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127">
@@ -10567,7 +10567,7 @@
         <v>105</v>
       </c>
       <c r="B127">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128">
@@ -10575,7 +10575,7 @@
         <v>106</v>
       </c>
       <c r="B128">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129">
@@ -10583,7 +10583,7 @@
         <v>107</v>
       </c>
       <c r="B129">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
@@ -10591,7 +10591,7 @@
         <v>108</v>
       </c>
       <c r="B130">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131">
@@ -10599,7 +10599,7 @@
         <v>109</v>
       </c>
       <c r="B131">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
@@ -10607,7 +10607,7 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133">
@@ -10615,7 +10615,7 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134">
@@ -10623,7 +10623,7 @@
         <v>112</v>
       </c>
       <c r="B134">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="135">
@@ -10631,7 +10631,7 @@
         <v>113</v>
       </c>
       <c r="B135">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="136">
@@ -10639,7 +10639,7 @@
         <v>114</v>
       </c>
       <c r="B136">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137">
@@ -10647,7 +10647,7 @@
         <v>115</v>
       </c>
       <c r="B137">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138">
@@ -10655,7 +10655,7 @@
         <v>116</v>
       </c>
       <c r="B138">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
@@ -10663,7 +10663,7 @@
         <v>117</v>
       </c>
       <c r="B139">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140">
@@ -10671,7 +10671,7 @@
         <v>118</v>
       </c>
       <c r="B140">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141">
@@ -10679,7 +10679,7 @@
         <v>119</v>
       </c>
       <c r="B141">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142">
@@ -10687,7 +10687,7 @@
         <v>120</v>
       </c>
       <c r="B142">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143">
@@ -10695,7 +10695,7 @@
         <v>121</v>
       </c>
       <c r="B143">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144">
@@ -10703,7 +10703,7 @@
         <v>122</v>
       </c>
       <c r="B144">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145">
@@ -10711,7 +10711,7 @@
         <v>123</v>
       </c>
       <c r="B145">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="146">
@@ -10719,7 +10719,7 @@
         <v>124</v>
       </c>
       <c r="B146">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="147">
@@ -10727,7 +10727,7 @@
         <v>125</v>
       </c>
       <c r="B147">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148">
@@ -10735,7 +10735,7 @@
         <v>126</v>
       </c>
       <c r="B148">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149">
@@ -10743,7 +10743,7 @@
         <v>127</v>
       </c>
       <c r="B149">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150">
@@ -10751,7 +10751,7 @@
         <v>128</v>
       </c>
       <c r="B150">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151">
@@ -10759,7 +10759,7 @@
         <v>129</v>
       </c>
       <c r="B151">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152">
@@ -10767,7 +10767,7 @@
         <v>130</v>
       </c>
       <c r="B152">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153">
@@ -10775,7 +10775,7 @@
         <v>131</v>
       </c>
       <c r="B153">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154">
@@ -10783,7 +10783,7 @@
         <v>132</v>
       </c>
       <c r="B154">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155">
@@ -10791,7 +10791,7 @@
         <v>133</v>
       </c>
       <c r="B155">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="156">
@@ -10799,7 +10799,7 @@
         <v>134</v>
       </c>
       <c r="B156">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157">
@@ -10807,7 +10807,7 @@
         <v>135</v>
       </c>
       <c r="B157">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158">
@@ -10815,7 +10815,7 @@
         <v>136</v>
       </c>
       <c r="B158">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159">
@@ -10823,7 +10823,7 @@
         <v>137</v>
       </c>
       <c r="B159">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160">
@@ -10831,7 +10831,7 @@
         <v>138</v>
       </c>
       <c r="B160">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161">
@@ -10839,7 +10839,7 @@
         <v>139</v>
       </c>
       <c r="B161">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162">
@@ -10847,7 +10847,7 @@
         <v>140</v>
       </c>
       <c r="B162">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163">
@@ -10855,7 +10855,7 @@
         <v>141</v>
       </c>
       <c r="B163">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164">
@@ -10863,7 +10863,7 @@
         <v>142</v>
       </c>
       <c r="B164">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="165">
@@ -10871,7 +10871,7 @@
         <v>143</v>
       </c>
       <c r="B165">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166">
@@ -10879,7 +10879,7 @@
         <v>144</v>
       </c>
       <c r="B166">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="167">
@@ -10887,7 +10887,7 @@
         <v>145</v>
       </c>
       <c r="B167">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="168">
@@ -10895,7 +10895,7 @@
         <v>146</v>
       </c>
       <c r="B168">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="169">
@@ -10903,7 +10903,7 @@
         <v>147</v>
       </c>
       <c r="B169">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170">
@@ -10911,7 +10911,7 @@
         <v>148</v>
       </c>
       <c r="B170">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171">
@@ -10919,7 +10919,7 @@
         <v>149</v>
       </c>
       <c r="B171">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172">
@@ -10927,7 +10927,7 @@
         <v>150</v>
       </c>
       <c r="B172">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173">
@@ -10935,7 +10935,7 @@
         <v>151</v>
       </c>
       <c r="B173">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174">
@@ -10943,7 +10943,7 @@
         <v>152</v>
       </c>
       <c r="B174">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175">
@@ -10951,7 +10951,7 @@
         <v>153</v>
       </c>
       <c r="B175">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176">
@@ -10959,7 +10959,7 @@
         <v>154</v>
       </c>
       <c r="B176">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177">
@@ -10967,7 +10967,7 @@
         <v>155</v>
       </c>
       <c r="B177">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178">
@@ -10975,7 +10975,7 @@
         <v>156</v>
       </c>
       <c r="B178">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179">
@@ -10983,7 +10983,7 @@
         <v>157</v>
       </c>
       <c r="B179">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180">
@@ -11864,7 +11864,7 @@
         <v>-20</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -11872,7 +11872,7 @@
         <v>-19</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -11880,7 +11880,7 @@
         <v>-18</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -11888,7 +11888,7 @@
         <v>-17</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -11896,7 +11896,7 @@
         <v>-16</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -11904,7 +11904,7 @@
         <v>-15</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -11912,7 +11912,7 @@
         <v>-14</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -11920,7 +11920,7 @@
         <v>-13</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -11928,7 +11928,7 @@
         <v>-12</v>
       </c>
       <c r="B10">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -11936,7 +11936,7 @@
         <v>-11</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -11944,7 +11944,7 @@
         <v>-10</v>
       </c>
       <c r="B12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -12000,7 +12000,7 @@
         <v>-3</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -12016,7 +12016,7 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
@@ -12032,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -12040,7 +12040,7 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -12048,7 +12048,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -12056,7 +12056,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
@@ -12064,7 +12064,7 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28">
@@ -12072,7 +12072,7 @@
         <v>6</v>
       </c>
       <c r="B28">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -12080,7 +12080,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -12088,7 +12088,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
@@ -12096,7 +12096,7 @@
         <v>9</v>
       </c>
       <c r="B31">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -12104,7 +12104,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
@@ -12112,7 +12112,7 @@
         <v>11</v>
       </c>
       <c r="B33">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34">
@@ -12120,7 +12120,7 @@
         <v>12</v>
       </c>
       <c r="B34">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -12128,7 +12128,7 @@
         <v>13</v>
       </c>
       <c r="B35">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -12136,7 +12136,7 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -12144,7 +12144,7 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -12152,7 +12152,7 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
@@ -12160,7 +12160,7 @@
         <v>17</v>
       </c>
       <c r="B39">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
@@ -12168,7 +12168,7 @@
         <v>18</v>
       </c>
       <c r="B40">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41">
@@ -12176,7 +12176,7 @@
         <v>19</v>
       </c>
       <c r="B41">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
@@ -12184,7 +12184,7 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
@@ -12192,7 +12192,7 @@
         <v>21</v>
       </c>
       <c r="B43">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
@@ -12200,7 +12200,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
@@ -12208,7 +12208,7 @@
         <v>23</v>
       </c>
       <c r="B45">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
@@ -12216,7 +12216,7 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47">
@@ -12224,7 +12224,7 @@
         <v>25</v>
       </c>
       <c r="B47">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
@@ -12232,7 +12232,7 @@
         <v>26</v>
       </c>
       <c r="B48">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
@@ -12240,7 +12240,7 @@
         <v>27</v>
       </c>
       <c r="B49">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
@@ -12248,7 +12248,7 @@
         <v>28</v>
       </c>
       <c r="B50">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
@@ -12256,7 +12256,7 @@
         <v>29</v>
       </c>
       <c r="B51">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -12264,7 +12264,7 @@
         <v>30</v>
       </c>
       <c r="B52">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -12272,7 +12272,7 @@
         <v>31</v>
       </c>
       <c r="B53">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -12280,7 +12280,7 @@
         <v>32</v>
       </c>
       <c r="B54">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -12288,7 +12288,7 @@
         <v>33</v>
       </c>
       <c r="B55">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
@@ -12296,7 +12296,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -12304,7 +12304,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -12312,7 +12312,7 @@
         <v>36</v>
       </c>
       <c r="B58">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -12320,7 +12320,7 @@
         <v>37</v>
       </c>
       <c r="B59">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
@@ -12328,7 +12328,7 @@
         <v>38</v>
       </c>
       <c r="B60">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
@@ -12336,7 +12336,7 @@
         <v>39</v>
       </c>
       <c r="B61">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
@@ -12344,7 +12344,7 @@
         <v>40</v>
       </c>
       <c r="B62">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
@@ -12352,7 +12352,7 @@
         <v>41</v>
       </c>
       <c r="B63">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
@@ -12360,7 +12360,7 @@
         <v>42</v>
       </c>
       <c r="B64">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65">
@@ -12368,7 +12368,7 @@
         <v>43</v>
       </c>
       <c r="B65">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66">
@@ -12376,7 +12376,7 @@
         <v>44</v>
       </c>
       <c r="B66">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67">
@@ -12384,7 +12384,7 @@
         <v>45</v>
       </c>
       <c r="B67">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
@@ -12392,7 +12392,7 @@
         <v>46</v>
       </c>
       <c r="B68">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
@@ -12400,7 +12400,7 @@
         <v>47</v>
       </c>
       <c r="B69">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
@@ -12408,7 +12408,7 @@
         <v>48</v>
       </c>
       <c r="B70">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71">
@@ -12416,7 +12416,7 @@
         <v>49</v>
       </c>
       <c r="B71">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
@@ -12424,7 +12424,7 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
@@ -12432,7 +12432,7 @@
         <v>51</v>
       </c>
       <c r="B73">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74">
@@ -12440,7 +12440,7 @@
         <v>52</v>
       </c>
       <c r="B74">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75">
@@ -12448,7 +12448,7 @@
         <v>53</v>
       </c>
       <c r="B75">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76">
@@ -12456,7 +12456,7 @@
         <v>54</v>
       </c>
       <c r="B76">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77">
@@ -12464,7 +12464,7 @@
         <v>55</v>
       </c>
       <c r="B77">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
@@ -12472,7 +12472,7 @@
         <v>56</v>
       </c>
       <c r="B78">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79">
@@ -12480,7 +12480,7 @@
         <v>57</v>
       </c>
       <c r="B79">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80">
@@ -12488,7 +12488,7 @@
         <v>58</v>
       </c>
       <c r="B80">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
@@ -12496,7 +12496,7 @@
         <v>59</v>
       </c>
       <c r="B81">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
@@ -12504,7 +12504,7 @@
         <v>60</v>
       </c>
       <c r="B82">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
@@ -12512,7 +12512,7 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
@@ -12520,7 +12520,7 @@
         <v>62</v>
       </c>
       <c r="B84">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
@@ -12528,7 +12528,7 @@
         <v>63</v>
       </c>
       <c r="B85">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
@@ -12536,7 +12536,7 @@
         <v>64</v>
       </c>
       <c r="B86">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87">
@@ -12544,7 +12544,7 @@
         <v>65</v>
       </c>
       <c r="B87">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
@@ -12552,7 +12552,7 @@
         <v>66</v>
       </c>
       <c r="B88">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
@@ -12560,7 +12560,7 @@
         <v>67</v>
       </c>
       <c r="B89">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
@@ -12568,7 +12568,7 @@
         <v>68</v>
       </c>
       <c r="B90">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
@@ -12576,7 +12576,7 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92">
@@ -12584,7 +12584,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
@@ -12592,7 +12592,7 @@
         <v>71</v>
       </c>
       <c r="B93">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
@@ -12600,7 +12600,7 @@
         <v>72</v>
       </c>
       <c r="B94">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95">
@@ -12608,7 +12608,7 @@
         <v>73</v>
       </c>
       <c r="B95">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
@@ -12616,7 +12616,7 @@
         <v>74</v>
       </c>
       <c r="B96">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97">
@@ -12624,7 +12624,7 @@
         <v>75</v>
       </c>
       <c r="B97">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98">
@@ -12632,7 +12632,7 @@
         <v>76</v>
       </c>
       <c r="B98">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
@@ -12640,7 +12640,7 @@
         <v>77</v>
       </c>
       <c r="B99">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
@@ -12648,7 +12648,7 @@
         <v>78</v>
       </c>
       <c r="B100">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
@@ -12656,7 +12656,7 @@
         <v>79</v>
       </c>
       <c r="B101">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102">
@@ -12664,7 +12664,7 @@
         <v>80</v>
       </c>
       <c r="B102">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103">
@@ -12672,7 +12672,7 @@
         <v>81</v>
       </c>
       <c r="B103">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104">
@@ -12680,7 +12680,7 @@
         <v>82</v>
       </c>
       <c r="B104">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
@@ -12688,7 +12688,7 @@
         <v>83</v>
       </c>
       <c r="B105">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
@@ -12696,7 +12696,7 @@
         <v>84</v>
       </c>
       <c r="B106">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
@@ -12704,7 +12704,7 @@
         <v>85</v>
       </c>
       <c r="B107">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108">
@@ -12712,7 +12712,7 @@
         <v>86</v>
       </c>
       <c r="B108">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109">
@@ -12720,7 +12720,7 @@
         <v>87</v>
       </c>
       <c r="B109">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110">
@@ -12728,7 +12728,7 @@
         <v>88</v>
       </c>
       <c r="B110">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111">
@@ -12736,7 +12736,7 @@
         <v>89</v>
       </c>
       <c r="B111">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112">
@@ -12744,7 +12744,7 @@
         <v>90</v>
       </c>
       <c r="B112">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113">
@@ -12752,7 +12752,7 @@
         <v>91</v>
       </c>
       <c r="B113">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114">
@@ -12760,7 +12760,7 @@
         <v>92</v>
       </c>
       <c r="B114">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115">
@@ -12768,7 +12768,7 @@
         <v>93</v>
       </c>
       <c r="B115">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116">
@@ -12776,7 +12776,7 @@
         <v>94</v>
       </c>
       <c r="B116">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117">
@@ -12784,7 +12784,7 @@
         <v>95</v>
       </c>
       <c r="B117">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118">
@@ -12792,7 +12792,7 @@
         <v>96</v>
       </c>
       <c r="B118">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119">
@@ -12800,7 +12800,7 @@
         <v>97</v>
       </c>
       <c r="B119">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120">
@@ -12808,7 +12808,7 @@
         <v>98</v>
       </c>
       <c r="B120">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121">
@@ -12816,7 +12816,7 @@
         <v>99</v>
       </c>
       <c r="B121">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122">
@@ -12824,7 +12824,7 @@
         <v>100</v>
       </c>
       <c r="B122">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123">
@@ -12832,7 +12832,7 @@
         <v>101</v>
       </c>
       <c r="B123">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124">
@@ -12840,7 +12840,7 @@
         <v>102</v>
       </c>
       <c r="B124">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125">
@@ -12848,7 +12848,7 @@
         <v>103</v>
       </c>
       <c r="B125">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126">
@@ -12856,7 +12856,7 @@
         <v>104</v>
       </c>
       <c r="B126">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127">
@@ -12864,7 +12864,7 @@
         <v>105</v>
       </c>
       <c r="B127">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="128">
@@ -12872,7 +12872,7 @@
         <v>106</v>
       </c>
       <c r="B128">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129">
@@ -12880,7 +12880,7 @@
         <v>107</v>
       </c>
       <c r="B129">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130">
@@ -12888,7 +12888,7 @@
         <v>108</v>
       </c>
       <c r="B130">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131">
@@ -12896,7 +12896,7 @@
         <v>109</v>
       </c>
       <c r="B131">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132">
@@ -12904,7 +12904,7 @@
         <v>110</v>
       </c>
       <c r="B132">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133">
@@ -12912,7 +12912,7 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134">
@@ -12920,7 +12920,7 @@
         <v>112</v>
       </c>
       <c r="B134">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135">
@@ -12928,7 +12928,7 @@
         <v>113</v>
       </c>
       <c r="B135">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="136">
@@ -12936,7 +12936,7 @@
         <v>114</v>
       </c>
       <c r="B136">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="137">
@@ -12944,7 +12944,7 @@
         <v>115</v>
       </c>
       <c r="B137">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138">
@@ -12952,7 +12952,7 @@
         <v>116</v>
       </c>
       <c r="B138">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139">
@@ -12960,7 +12960,7 @@
         <v>117</v>
       </c>
       <c r="B139">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140">
@@ -12968,7 +12968,7 @@
         <v>118</v>
       </c>
       <c r="B140">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141">
@@ -12976,7 +12976,7 @@
         <v>119</v>
       </c>
       <c r="B141">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="142">
@@ -12984,7 +12984,7 @@
         <v>120</v>
       </c>
       <c r="B142">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143">
@@ -12992,7 +12992,7 @@
         <v>121</v>
       </c>
       <c r="B143">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144">
@@ -13000,7 +13000,7 @@
         <v>122</v>
       </c>
       <c r="B144">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145">
@@ -13016,7 +13016,7 @@
         <v>124</v>
       </c>
       <c r="B146">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="147">
@@ -13072,7 +13072,7 @@
         <v>131</v>
       </c>
       <c r="B153">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154">
@@ -13088,7 +13088,7 @@
         <v>133</v>
       </c>
       <c r="B155">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156">
@@ -13096,7 +13096,7 @@
         <v>134</v>
       </c>
       <c r="B156">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="157">
@@ -13104,7 +13104,7 @@
         <v>135</v>
       </c>
       <c r="B157">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158">
@@ -13112,7 +13112,7 @@
         <v>136</v>
       </c>
       <c r="B158">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="159">
@@ -13120,7 +13120,7 @@
         <v>137</v>
       </c>
       <c r="B159">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="160">
@@ -13128,7 +13128,7 @@
         <v>138</v>
       </c>
       <c r="B160">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161">
@@ -13136,7 +13136,7 @@
         <v>139</v>
       </c>
       <c r="B161">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162">
@@ -13144,7 +13144,7 @@
         <v>140</v>
       </c>
       <c r="B162">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163">
@@ -13152,7 +13152,7 @@
         <v>141</v>
       </c>
       <c r="B163">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="164">
@@ -13160,7 +13160,7 @@
         <v>142</v>
       </c>
       <c r="B164">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165">
@@ -13168,7 +13168,7 @@
         <v>143</v>
       </c>
       <c r="B165">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166">
@@ -13176,7 +13176,7 @@
         <v>144</v>
       </c>
       <c r="B166">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167">
@@ -13184,7 +13184,7 @@
         <v>145</v>
       </c>
       <c r="B167">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168">
@@ -13192,7 +13192,7 @@
         <v>146</v>
       </c>
       <c r="B168">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="169">
@@ -13200,7 +13200,7 @@
         <v>147</v>
       </c>
       <c r="B169">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="170">
@@ -13208,7 +13208,7 @@
         <v>148</v>
       </c>
       <c r="B170">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171">
@@ -13216,7 +13216,7 @@
         <v>149</v>
       </c>
       <c r="B171">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172">
@@ -13224,7 +13224,7 @@
         <v>150</v>
       </c>
       <c r="B172">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="173">
@@ -13232,7 +13232,7 @@
         <v>151</v>
       </c>
       <c r="B173">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174">
@@ -13240,7 +13240,7 @@
         <v>152</v>
       </c>
       <c r="B174">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175">
@@ -13248,7 +13248,7 @@
         <v>153</v>
       </c>
       <c r="B175">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176">
@@ -13256,7 +13256,7 @@
         <v>154</v>
       </c>
       <c r="B176">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="177">
@@ -13264,7 +13264,7 @@
         <v>155</v>
       </c>
       <c r="B177">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178">
@@ -13272,7 +13272,7 @@
         <v>156</v>
       </c>
       <c r="B178">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179">
@@ -13280,7 +13280,7 @@
         <v>157</v>
       </c>
       <c r="B179">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="180">
@@ -13288,7 +13288,7 @@
         <v>158</v>
       </c>
       <c r="B180">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181">
